--- a/financial_models/Opportunities/0697.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0697.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88196A43-C857-4054-803A-1A2E0CAD9E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A76820-CAB7-416F-8F39-7C563D02CED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4482,7 +4482,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4532,7 +4532,7 @@
       <c r="H6" s="133"/>
       <c r="I6" s="392">
         <f>I4*I5/1000000</f>
-        <v>13401.152643200001</v>
+        <v>13702.3021408</v>
       </c>
       <c r="J6" s="393"/>
       <c r="K6" s="151"/>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39)/I4</f>
-        <v>5.2229686403517078E-2</v>
+        <v>5.1081781207835381E-2</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40)/I4</f>
@@ -4597,11 +4597,11 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>1.3101896163498383</v>
+        <v>1.3396320796385988</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>35.053496563161083</v>
+        <v>37.040646662972769</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4655,21 +4655,21 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>1.1289965552439201</v>
+        <v>1.1286037277000023</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>234</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>1.4846087740464236</v>
+        <v>1.484215946502506</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>1.3789804541910642</v>
+        <v>1.3785876266471466</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4700,14 +4700,14 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="C16" s="366">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-0.32529187966794149</v>
+        <v>-0.34253427107299639</v>
       </c>
       <c r="E16" s="361">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
@@ -4715,27 +4715,27 @@
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>6.938202247191011E-2</v>
+        <v>6.7857142857142852E-2</v>
       </c>
       <c r="G16" s="369" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="394">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>0.87201127750281315</v>
+        <v>0.87161844995889548</v>
       </c>
       <c r="I16" s="369" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>0.90798872249718687</v>
+        <v>0.94838155004110458</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="290">
         <f ca="1">H14/(1+C16)</f>
-        <v>1.2536185947191492</v>
+        <v>1.2532614787701333</v>
       </c>
       <c r="C17" s="367"/>
       <c r="D17" s="289">
@@ -4745,14 +4745,14 @@
       <c r="E17" s="362"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
-        <v>9.8514811857643172E-2</v>
+        <v>9.8542883581800189E-2</v>
       </c>
       <c r="G17" s="370"/>
       <c r="H17" s="395"/>
       <c r="I17" s="370"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>0.38160731721633601</v>
+        <v>0.38164302881123779</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4763,7 +4763,7 @@
       <c r="C18" s="368"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.15361859471914915</v>
+        <v>0.15326147877013327</v>
       </c>
       <c r="E18" s="363"/>
       <c r="F18" s="163">
@@ -4775,7 +4775,7 @@
       <c r="I18" s="371"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>0.22798872249718694</v>
+        <v>0.22838155004110461</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="J25" s="354">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>1.1031843633528513</v>
+        <v>1.1028701013177173</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9367,11 +9367,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="59">
         <f>E46-I46-E50</f>
-        <v>7275037.3030376583</v>
+        <v>7272079.8076003026</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.32303684921491671</v>
+        <v>0.32331205267385554</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
-        <v>0.9663024326476789</v>
+        <v>0.96590960510376134</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10265,11 +10265,11 @@
       </c>
       <c r="D50" s="214">
         <f>IF(E50=0, 0,E50/C50)</f>
-        <v>1.3101896163498383</v>
+        <v>1.3396320796385988</v>
       </c>
       <c r="E50" s="218">
         <f>MAX(C50,C50*Dashboard!I10)</f>
-        <v>131608.54696234126</v>
+        <v>134566.04239969724</v>
       </c>
       <c r="I50" s="157"/>
     </row>
@@ -10397,7 +10397,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="439">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>5364473.190162342</v>
+        <v>5668580.1831996981</v>
       </c>
       <c r="E60" s="440"/>
       <c r="F60" s="6"/>
@@ -12266,7 +12266,7 @@
       </c>
       <c r="G18" s="137">
         <f>C18+C19+C20+C21</f>
-        <v>6565143.9530376587</v>
+        <v>6562186.457600303</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12286,7 +12286,7 @@
       </c>
       <c r="G19" s="197">
         <f>G18*Data!C$4/Dashboard!I5</f>
-        <v>0.87201127750281315</v>
+        <v>0.87161844995889548</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12318,11 +12318,11 @@
       </c>
       <c r="C21" s="84">
         <f>-Asset_Model!E50</f>
-        <v>-131608.54696234126</v>
+        <v>-134566.04239969724</v>
       </c>
       <c r="D21" s="219">
         <f>C21/(Dashboard!I5/Data!C4)</f>
-        <v>-1.7480825704334995E-2</v>
+        <v>-1.7873653248252637E-2</v>
       </c>
       <c r="E21" s="444"/>
       <c r="F21" s="148">
@@ -12331,7 +12331,7 @@
       </c>
       <c r="G21" s="147">
         <f>SUM(D19:D21)</f>
-        <v>0.31034246733376031</v>
+        <v>0.30994963978984269</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12397,7 +12397,7 @@
       </c>
       <c r="G25" s="206">
         <f ca="1">$F$25+E25+$G$19</f>
-        <v>1.2853105161697203</v>
+        <v>1.2849176886258025</v>
       </c>
       <c r="I25" s="74" t="s">
         <v>319</v>
@@ -12421,7 +12421,7 @@
       <c r="F26" s="446"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
-        <v>1.4846087740464236</v>
+        <v>1.484215946502506</v>
       </c>
       <c r="I26" s="74" t="s">
         <v>318</v>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="C29" s="252">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>1.1289965552439201</v>
+        <v>1.1286037277000023</v>
       </c>
       <c r="D29" s="23" t="str">
         <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
@@ -12465,7 +12465,7 @@
       </c>
       <c r="E29" s="251">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>1.4846087740464236</v>
+        <v>1.484215946502506</v>
       </c>
       <c r="F29" s="30"/>
       <c r="H29" s="6"/>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="C32" s="253">
         <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
-        <v>1.3789804541910642</v>
+        <v>1.3785876266471466</v>
       </c>
       <c r="D32" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12509,11 +12509,11 @@
       </c>
       <c r="E32" s="120">
         <f ca="1">(C32-G19)/C9</f>
-        <v>38.370248890280983</v>
+        <v>38.37024889028099</v>
       </c>
       <c r="F32" s="158">
         <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.0150145349609641</v>
+        <v>1.0147253896974489</v>
       </c>
       <c r="G32" s="87"/>
       <c r="H32" s="6"/>
@@ -12525,7 +12525,7 @@
       </c>
       <c r="C33" s="254">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>1.5274746004612454</v>
+        <v>1.5270817729173276</v>
       </c>
       <c r="D33" s="208" t="str">
         <f>D32</f>
@@ -12533,11 +12533,11 @@
       </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>49.609112342211013</v>
+        <v>49.609112342211006</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.1243153712148548</v>
+        <v>1.1240262259513394</v>
       </c>
       <c r="G33" s="281">
         <f>Dashboard!D10+4.5%</f>

--- a/financial_models/Opportunities/0697.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0697.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A76820-CAB7-416F-8F39-7C563D02CED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C5A97C-385B-4C7E-8566-14AE3DCA0BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="329">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1147,6 +1147,9 @@
   </si>
   <si>
     <t>Book Cash Ratio</t>
+  </si>
+  <si>
+    <t>Expected Upside</t>
   </si>
 </sst>
 </file>
@@ -2893,7 +2896,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="448">
+  <cellXfs count="449">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3792,66 +3795,71 @@
     <xf numFmtId="184" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3878,16 +3886,14 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3905,13 +3911,21 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3924,63 +3938,52 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4024,6 +4027,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4412,7 +4418,7 @@
   <dimension ref="A1:L966"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:H26"/>
+      <selection activeCell="I29" sqref="I29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4456,33 +4462,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="378" t="s">
+      <c r="C3" s="387" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="379"/>
+      <c r="D3" s="388"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="388" t="s">
+      <c r="I3" s="399" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="389"/>
+      <c r="J3" s="400"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="380" t="s">
+      <c r="C4" s="389" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="381"/>
+      <c r="D4" s="390"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4493,10 +4499,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="382">
+      <c r="C5" s="391">
         <v>44502</v>
       </c>
-      <c r="D5" s="381"/>
+      <c r="D5" s="390"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4504,10 +4510,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="390">
+      <c r="I5" s="382">
         <v>7528737440</v>
       </c>
-      <c r="J5" s="391"/>
+      <c r="J5" s="383"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4530,11 +4536,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="392">
+      <c r="I6" s="401">
         <f>I4*I5/1000000</f>
-        <v>13702.3021408</v>
-      </c>
-      <c r="J6" s="393"/>
+        <v>13250.577894399999</v>
+      </c>
+      <c r="J6" s="402"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4543,7 +4549,7 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39)/I4</f>
-        <v>5.1081781207835381E-2</v>
+        <v>5.2823205567193408E-2</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40)/I4</f>
@@ -4597,41 +4603,41 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>1.3396320796385988</v>
+        <v>1.295468384705458</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>37.040646662972769</v>
+        <v>34.059921513255226</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="313" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="402">
+      <c r="C11" s="413">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="403"/>
+      <c r="D11" s="414"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="400" t="s">
+      <c r="I11" s="411" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="401"/>
+      <c r="J11" s="412"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="356">
+      <c r="C12" s="415">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="357"/>
+      <c r="D12" s="416"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4655,21 +4661,21 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>1.1286037277000023</v>
+        <v>1.1291929690158786</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>234</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>1.484215946502506</v>
+        <v>1.4848051878183823</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>1.3785876266471466</v>
+        <v>1.379176867963023</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4700,59 +4706,59 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>1.82</v>
-      </c>
-      <c r="C16" s="366">
+        <v>1.76</v>
+      </c>
+      <c r="C16" s="422">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-0.34253427107299639</v>
-      </c>
-      <c r="E16" s="361">
+        <v>-0.31637677956646415</v>
+      </c>
+      <c r="E16" s="419">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.1235</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>6.7857142857142852E-2</v>
-      </c>
-      <c r="G16" s="369" t="s">
+        <v>7.017045454545455E-2</v>
+      </c>
+      <c r="G16" s="406" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="394">
+      <c r="H16" s="403">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>0.87161844995889548</v>
-      </c>
-      <c r="I16" s="369" t="s">
+        <v>0.87220769127477182</v>
+      </c>
+      <c r="I16" s="406" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>0.94838155004110458</v>
+        <v>0.88779230872522819</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="290">
         <f ca="1">H14/(1+C16)</f>
-        <v>1.2532614787701333</v>
-      </c>
-      <c r="C17" s="367"/>
+        <v>1.2537971526936571</v>
+      </c>
+      <c r="C17" s="423"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="362"/>
+      <c r="E17" s="420"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
-        <v>9.8542883581800189E-2</v>
-      </c>
-      <c r="G17" s="370"/>
-      <c r="H17" s="395"/>
-      <c r="I17" s="370"/>
+        <v>9.8500781992264586E-2</v>
+      </c>
+      <c r="G17" s="407"/>
+      <c r="H17" s="404"/>
+      <c r="I17" s="407"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>0.38164302881123779</v>
+        <v>0.38158946141888528</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4760,22 +4766,22 @@
         <f>C35</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="C18" s="368"/>
+      <c r="C18" s="424"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.15326147877013327</v>
-      </c>
-      <c r="E18" s="363"/>
+        <v>0.1537971526936571</v>
+      </c>
+      <c r="E18" s="421"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>0.11227272727272726</v>
       </c>
-      <c r="G18" s="371"/>
-      <c r="H18" s="396"/>
-      <c r="I18" s="371"/>
+      <c r="G18" s="408"/>
+      <c r="H18" s="405"/>
+      <c r="I18" s="408"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>0.22838155004110461</v>
+        <v>0.22779230872522827</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4806,44 +4812,44 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="385"/>
-      <c r="D21" s="386"/>
-      <c r="E21" s="386"/>
-      <c r="F21" s="386"/>
-      <c r="G21" s="386"/>
-      <c r="H21" s="386"/>
-      <c r="I21" s="386"/>
-      <c r="J21" s="387"/>
+      <c r="C21" s="394"/>
+      <c r="D21" s="395"/>
+      <c r="E21" s="395"/>
+      <c r="F21" s="395"/>
+      <c r="G21" s="395"/>
+      <c r="H21" s="395"/>
+      <c r="I21" s="395"/>
+      <c r="J21" s="396"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="398" t="s">
+      <c r="C22" s="410" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="399"/>
-      <c r="E22" s="399"/>
-      <c r="F22" s="399"/>
-      <c r="G22" s="398"/>
-      <c r="H22" s="398"/>
-      <c r="I22" s="399"/>
-      <c r="J22" s="399"/>
+      <c r="D22" s="361"/>
+      <c r="E22" s="361"/>
+      <c r="F22" s="361"/>
+      <c r="G22" s="410"/>
+      <c r="H22" s="410"/>
+      <c r="I22" s="361"/>
+      <c r="J22" s="361"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="364"/>
-      <c r="D23" s="365"/>
-      <c r="E23" s="365"/>
-      <c r="F23" s="365"/>
-      <c r="G23" s="364"/>
-      <c r="H23" s="364"/>
-      <c r="I23" s="365"/>
-      <c r="J23" s="365"/>
+      <c r="C23" s="397"/>
+      <c r="D23" s="398"/>
+      <c r="E23" s="398"/>
+      <c r="F23" s="398"/>
+      <c r="G23" s="397"/>
+      <c r="H23" s="397"/>
+      <c r="I23" s="398"/>
+      <c r="J23" s="398"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4880,204 +4886,213 @@
       </c>
       <c r="J25" s="354">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>1.1028701013177173</v>
+        <v>1.1033414943704183</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="383">
+      <c r="C26" s="392">
         <v>44503</v>
       </c>
-      <c r="D26" s="384"/>
-      <c r="E26" s="375" t="str">
+      <c r="D26" s="393"/>
+      <c r="E26" s="428" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="376"/>
-      <c r="G26" s="376"/>
-      <c r="H26" s="377"/>
-      <c r="I26" s="397" t="s">
+      <c r="F26" s="429"/>
+      <c r="G26" s="429"/>
+      <c r="H26" s="430"/>
+      <c r="I26" s="409" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="397"/>
+      <c r="J26" s="409"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="360">
+      <c r="C27" s="418">
         <f>C31/D25</f>
         <v>4.48E-2</v>
       </c>
-      <c r="D27" s="359"/>
-      <c r="E27" s="358">
+      <c r="D27" s="381"/>
+      <c r="E27" s="417">
         <f>E31/D25</f>
         <v>0.11</v>
       </c>
-      <c r="F27" s="359"/>
-      <c r="G27" s="373">
+      <c r="F27" s="381"/>
+      <c r="G27" s="426">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="374"/>
-      <c r="I27" s="372">
+      <c r="H27" s="427"/>
+      <c r="I27" s="425">
         <f>C27+E27+G27</f>
         <v>0.15479999999999999</v>
       </c>
-      <c r="J27" s="372"/>
+      <c r="J27" s="425"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="408">
+      <c r="C28" s="356">
         <v>16000</v>
       </c>
-      <c r="D28" s="399"/>
-      <c r="E28" s="408">
+      <c r="D28" s="361"/>
+      <c r="E28" s="356">
         <v>60000</v>
       </c>
-      <c r="F28" s="399"/>
-      <c r="G28" s="390"/>
-      <c r="H28" s="391"/>
-      <c r="I28" s="407">
+      <c r="F28" s="361"/>
+      <c r="G28" s="382"/>
+      <c r="H28" s="383"/>
+      <c r="I28" s="386">
         <f>C28+E28+G28</f>
         <v>76000</v>
       </c>
-      <c r="J28" s="407"/>
+      <c r="J28" s="386"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="409">
+      <c r="C29" s="360">
         <v>1.68</v>
       </c>
-      <c r="D29" s="399"/>
-      <c r="E29" s="409">
+      <c r="D29" s="361"/>
+      <c r="E29" s="360">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F29" s="399"/>
-      <c r="G29" s="419"/>
-      <c r="H29" s="420"/>
-      <c r="I29" s="404"/>
-      <c r="J29" s="404"/>
+      <c r="F29" s="361"/>
+      <c r="G29" s="362"/>
+      <c r="H29" s="363"/>
+      <c r="I29" s="384"/>
+      <c r="J29" s="384"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="410">
+      <c r="C30" s="358">
         <f>C29*$I$5/1000000</f>
         <v>12648.278899199999</v>
       </c>
-      <c r="D30" s="411"/>
-      <c r="E30" s="410">
+      <c r="D30" s="368"/>
+      <c r="E30" s="358">
         <f>E29*$I$5/1000000</f>
         <v>8281.6111840000012</v>
       </c>
-      <c r="F30" s="411"/>
-      <c r="G30" s="427">
+      <c r="F30" s="368"/>
+      <c r="G30" s="371">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="428"/>
-      <c r="I30" s="405"/>
-      <c r="J30" s="405"/>
+      <c r="H30" s="372"/>
+      <c r="I30" s="385"/>
+      <c r="J30" s="385"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="414">
+      <c r="C31" s="377">
         <f>C28*C29</f>
         <v>26880</v>
       </c>
-      <c r="D31" s="415"/>
-      <c r="E31" s="406">
+      <c r="D31" s="378"/>
+      <c r="E31" s="379">
         <f>E28*E29</f>
         <v>66000</v>
       </c>
-      <c r="F31" s="416"/>
-      <c r="G31" s="429">
+      <c r="F31" s="380"/>
+      <c r="G31" s="373">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="430"/>
-      <c r="I31" s="406">
+      <c r="H31" s="374"/>
+      <c r="I31" s="379">
         <f>C31+E31+G31</f>
         <v>92880</v>
       </c>
-      <c r="J31" s="406"/>
+      <c r="J31" s="379"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="412"/>
-      <c r="D32" s="413"/>
-      <c r="E32" s="417">
+      <c r="C32" s="375"/>
+      <c r="D32" s="376"/>
+      <c r="E32" s="359">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>1.2221052631578948</v>
       </c>
-      <c r="F32" s="359"/>
+      <c r="F32" s="381"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="417">
+      <c r="I32" s="359">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>1.2221052631578948</v>
       </c>
-      <c r="J32" s="417"/>
+      <c r="J32" s="359"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="425"/>
-      <c r="D33" s="426"/>
-      <c r="E33" s="410">
+      <c r="C33" s="369"/>
+      <c r="D33" s="370"/>
+      <c r="E33" s="358">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>9200.9096503578949</v>
       </c>
-      <c r="F33" s="411"/>
+      <c r="F33" s="368"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="410">
+      <c r="I33" s="358">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>9200.9096503578949</v>
       </c>
-      <c r="J33" s="410"/>
+      <c r="J33" s="358"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>320</v>
       </c>
-      <c r="C35" s="421">
+      <c r="C35" s="364">
         <f>E29</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="D35" s="422"/>
-      <c r="G35" s="423" t="s">
+      <c r="D35" s="365"/>
+      <c r="G35" s="366" t="s">
         <v>321</v>
       </c>
-      <c r="H35" s="424"/>
-      <c r="I35" s="421">
+      <c r="H35" s="367"/>
+      <c r="I35" s="364">
         <v>1.9</v>
       </c>
-      <c r="J35" s="422"/>
+      <c r="J35" s="365"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>322</v>
       </c>
-      <c r="C36" s="408">
+      <c r="C36" s="356">
         <f>E28</f>
         <v>60000</v>
       </c>
-      <c r="D36" s="418"/>
+      <c r="D36" s="357"/>
+      <c r="G36" s="448" t="s">
+        <v>328</v>
+      </c>
+      <c r="H36" s="448"/>
+      <c r="I36" s="437">
+        <f>IF(C26="",0,I35/C29-1)</f>
+        <v>0.13095238095238093</v>
+      </c>
+      <c r="J36" s="438"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6010,33 +6025,17 @@
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
+  <mergeCells count="54">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6053,60 +6052,83 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:D26 I26 C28:G29 I28:I29">
-    <cfRule type="containsBlanks" priority="17">
+    <cfRule type="containsBlanks" priority="18">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="4">
+    <cfRule type="containsBlanks" priority="5">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J35">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsBlanks" priority="2">
+    <cfRule type="containsBlanks" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="13" priority="1">
+    <cfRule type="containsBlanks" dxfId="13" priority="2">
       <formula>LEN(TRIM(E26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:J36">
+    <cfRule type="containsBlanks" priority="1">
+      <formula>LEN(TRIM(I36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9367,11 +9389,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="59">
         <f>E46-I46-E50</f>
-        <v>7272079.8076003026</v>
+        <v>7276516.0507563362</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.32331205267385554</v>
+        <v>0.3228992474854474</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9391,7 +9413,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
-        <v>0.96590960510376134</v>
+        <v>0.96649884641963768</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10265,11 +10287,11 @@
       </c>
       <c r="D50" s="214">
         <f>IF(E50=0, 0,E50/C50)</f>
-        <v>1.3396320796385988</v>
+        <v>1.295468384705458</v>
       </c>
       <c r="E50" s="218">
         <f>MAX(C50,C50*Dashboard!I10)</f>
-        <v>134566.04239969724</v>
+        <v>130129.79924366326</v>
       </c>
       <c r="I50" s="157"/>
     </row>
@@ -10300,7 +10322,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>2627003</v>
       </c>
-      <c r="E53" s="415"/>
+      <c r="E53" s="378"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10319,7 +10341,7 @@
       <c r="D54" s="441">
         <v>0</v>
       </c>
-      <c r="E54" s="399"/>
+      <c r="E54" s="361"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10333,7 +10355,7 @@
       <c r="D55" s="441">
         <v>0</v>
       </c>
-      <c r="E55" s="399"/>
+      <c r="E55" s="361"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10397,7 +10419,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="439">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>5668580.1831996981</v>
+        <v>5212419.6936436612</v>
       </c>
       <c r="E60" s="440"/>
       <c r="F60" s="6"/>
@@ -12266,7 +12288,7 @@
       </c>
       <c r="G18" s="137">
         <f>C18+C19+C20+C21</f>
-        <v>6562186.457600303</v>
+        <v>6566622.7007563366</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12286,7 +12308,7 @@
       </c>
       <c r="G19" s="197">
         <f>G18*Data!C$4/Dashboard!I5</f>
-        <v>0.87161844995889548</v>
+        <v>0.87220769127477182</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12318,11 +12340,11 @@
       </c>
       <c r="C21" s="84">
         <f>-Asset_Model!E50</f>
-        <v>-134566.04239969724</v>
+        <v>-130129.79924366326</v>
       </c>
       <c r="D21" s="219">
         <f>C21/(Dashboard!I5/Data!C4)</f>
-        <v>-1.7873653248252637E-2</v>
+        <v>-1.7284411932376176E-2</v>
       </c>
       <c r="E21" s="444"/>
       <c r="F21" s="148">
@@ -12331,7 +12353,7 @@
       </c>
       <c r="G21" s="147">
         <f>SUM(D19:D21)</f>
-        <v>0.30994963978984269</v>
+        <v>0.31053888110571914</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12397,7 +12419,7 @@
       </c>
       <c r="G25" s="206">
         <f ca="1">$F$25+E25+$G$19</f>
-        <v>1.2849176886258025</v>
+        <v>1.2855069299416788</v>
       </c>
       <c r="I25" s="74" t="s">
         <v>319</v>
@@ -12421,7 +12443,7 @@
       <c r="F26" s="446"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
-        <v>1.484215946502506</v>
+        <v>1.4848051878183823</v>
       </c>
       <c r="I26" s="74" t="s">
         <v>318</v>
@@ -12457,7 +12479,7 @@
       </c>
       <c r="C29" s="252">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>1.1286037277000023</v>
+        <v>1.1291929690158786</v>
       </c>
       <c r="D29" s="23" t="str">
         <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
@@ -12465,7 +12487,7 @@
       </c>
       <c r="E29" s="251">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>1.484215946502506</v>
+        <v>1.4848051878183823</v>
       </c>
       <c r="F29" s="30"/>
       <c r="H29" s="6"/>
@@ -12501,7 +12523,7 @@
       </c>
       <c r="C32" s="253">
         <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
-        <v>1.3785876266471466</v>
+        <v>1.379176867963023</v>
       </c>
       <c r="D32" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12513,7 +12535,7 @@
       </c>
       <c r="F32" s="158">
         <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.0147253896974489</v>
+        <v>1.0151591075927218</v>
       </c>
       <c r="G32" s="87"/>
       <c r="H32" s="6"/>
@@ -12525,7 +12547,7 @@
       </c>
       <c r="C33" s="254">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>1.5270817729173276</v>
+        <v>1.5276710142332039</v>
       </c>
       <c r="D33" s="208" t="str">
         <f>D32</f>
@@ -12537,7 +12559,7 @@
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.1240262259513394</v>
+        <v>1.1244599438466123</v>
       </c>
       <c r="G33" s="281">
         <f>Dashboard!D10+4.5%</f>

--- a/financial_models/Opportunities/0697.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0697.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C5A97C-385B-4C7E-8566-14AE3DCA0BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD76A4B4-D10B-4FC0-AC1B-B637D50BCDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3840,6 +3840,13 @@
     <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3998,10 +4005,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4027,9 +4030,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4038,17 +4038,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4057,30 +4047,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4106,22 +4078,18 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -4148,9 +4116,28 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDD7E6B"/>
+          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4175,20 +4162,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDD7E6B"/>
-          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4417,7 +4403,7 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I29" sqref="I29:J29"/>
     </sheetView>
   </sheetViews>
@@ -4462,27 +4448,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="387" t="s">
+      <c r="C3" s="390" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="388"/>
+      <c r="D3" s="391"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="399" t="s">
+      <c r="I3" s="402" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="400"/>
+      <c r="J3" s="403"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="389" t="s">
+      <c r="C4" s="392" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="390"/>
+      <c r="D4" s="393"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4499,10 +4485,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="391">
+      <c r="C5" s="394">
         <v>44502</v>
       </c>
-      <c r="D5" s="390"/>
+      <c r="D5" s="393"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4510,10 +4496,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="382">
+      <c r="I5" s="385">
         <v>7528737440</v>
       </c>
-      <c r="J5" s="383"/>
+      <c r="J5" s="386"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4536,11 +4522,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="401">
+      <c r="I6" s="404">
         <f>I4*I5/1000000</f>
         <v>13250.577894399999</v>
       </c>
-      <c r="J6" s="402"/>
+      <c r="J6" s="405"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4614,30 +4600,30 @@
       <c r="B11" s="313" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="413">
+      <c r="C11" s="416">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="414"/>
+      <c r="D11" s="417"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="411" t="s">
+      <c r="I11" s="414" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="412"/>
+      <c r="J11" s="415"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="415">
+      <c r="C12" s="418">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="416"/>
+      <c r="D12" s="419"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4708,14 +4694,14 @@
         <f>I4</f>
         <v>1.76</v>
       </c>
-      <c r="C16" s="422">
+      <c r="C16" s="425">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
         <v>-0.31637677956646415</v>
       </c>
-      <c r="E16" s="419">
+      <c r="E16" s="422">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.1235</v>
       </c>
@@ -4723,14 +4709,14 @@
         <f>E16/B16</f>
         <v>7.017045454545455E-2</v>
       </c>
-      <c r="G16" s="406" t="s">
+      <c r="G16" s="409" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="403">
+      <c r="H16" s="406">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>0.87220769127477182</v>
       </c>
-      <c r="I16" s="406" t="s">
+      <c r="I16" s="409" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4743,19 +4729,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>1.2537971526936571</v>
       </c>
-      <c r="C17" s="423"/>
+      <c r="C17" s="426"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="420"/>
+      <c r="E17" s="423"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>9.8500781992264586E-2</v>
       </c>
-      <c r="G17" s="407"/>
-      <c r="H17" s="404"/>
-      <c r="I17" s="407"/>
+      <c r="G17" s="410"/>
+      <c r="H17" s="407"/>
+      <c r="I17" s="410"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>0.38158946141888528</v>
@@ -4766,19 +4752,19 @@
         <f>C35</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="C18" s="424"/>
+      <c r="C18" s="427"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
         <v>0.1537971526936571</v>
       </c>
-      <c r="E18" s="421"/>
+      <c r="E18" s="424"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>0.11227272727272726</v>
       </c>
-      <c r="G18" s="408"/>
-      <c r="H18" s="405"/>
-      <c r="I18" s="408"/>
+      <c r="G18" s="411"/>
+      <c r="H18" s="408"/>
+      <c r="I18" s="411"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>0.22779230872522827</v>
@@ -4812,28 +4798,28 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="394"/>
-      <c r="D21" s="395"/>
-      <c r="E21" s="395"/>
-      <c r="F21" s="395"/>
-      <c r="G21" s="395"/>
-      <c r="H21" s="395"/>
-      <c r="I21" s="395"/>
-      <c r="J21" s="396"/>
+      <c r="C21" s="397"/>
+      <c r="D21" s="398"/>
+      <c r="E21" s="398"/>
+      <c r="F21" s="398"/>
+      <c r="G21" s="398"/>
+      <c r="H21" s="398"/>
+      <c r="I21" s="398"/>
+      <c r="J21" s="399"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="410" t="s">
+      <c r="C22" s="413" t="s">
         <v>314</v>
       </c>
       <c r="D22" s="361"/>
       <c r="E22" s="361"/>
       <c r="F22" s="361"/>
-      <c r="G22" s="410"/>
-      <c r="H22" s="410"/>
+      <c r="G22" s="413"/>
+      <c r="H22" s="413"/>
       <c r="I22" s="361"/>
       <c r="J22" s="361"/>
     </row>
@@ -4842,14 +4828,14 @@
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="397"/>
-      <c r="D23" s="398"/>
-      <c r="E23" s="398"/>
-      <c r="F23" s="398"/>
-      <c r="G23" s="397"/>
-      <c r="H23" s="397"/>
-      <c r="I23" s="398"/>
-      <c r="J23" s="398"/>
+      <c r="C23" s="400"/>
+      <c r="D23" s="401"/>
+      <c r="E23" s="401"/>
+      <c r="F23" s="401"/>
+      <c r="G23" s="400"/>
+      <c r="H23" s="400"/>
+      <c r="I23" s="401"/>
+      <c r="J23" s="401"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4893,46 +4879,46 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="392">
+      <c r="C26" s="395">
         <v>44503</v>
       </c>
-      <c r="D26" s="393"/>
-      <c r="E26" s="428" t="str">
+      <c r="D26" s="396"/>
+      <c r="E26" s="431" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="429"/>
-      <c r="G26" s="429"/>
-      <c r="H26" s="430"/>
-      <c r="I26" s="409" t="s">
+      <c r="F26" s="432"/>
+      <c r="G26" s="432"/>
+      <c r="H26" s="433"/>
+      <c r="I26" s="412" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="409"/>
+      <c r="J26" s="412"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="418">
+      <c r="C27" s="421">
         <f>C31/D25</f>
         <v>4.48E-2</v>
       </c>
-      <c r="D27" s="381"/>
-      <c r="E27" s="417">
+      <c r="D27" s="384"/>
+      <c r="E27" s="420">
         <f>E31/D25</f>
         <v>0.11</v>
       </c>
-      <c r="F27" s="381"/>
-      <c r="G27" s="426">
+      <c r="F27" s="384"/>
+      <c r="G27" s="429">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="427"/>
-      <c r="I27" s="425">
+      <c r="H27" s="430"/>
+      <c r="I27" s="428">
         <f>C27+E27+G27</f>
         <v>0.15479999999999999</v>
       </c>
-      <c r="J27" s="425"/>
+      <c r="J27" s="428"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
@@ -4946,13 +4932,13 @@
         <v>60000</v>
       </c>
       <c r="F28" s="361"/>
-      <c r="G28" s="382"/>
-      <c r="H28" s="383"/>
-      <c r="I28" s="386">
+      <c r="G28" s="385"/>
+      <c r="H28" s="386"/>
+      <c r="I28" s="389">
         <f>C28+E28+G28</f>
         <v>76000</v>
       </c>
-      <c r="J28" s="386"/>
+      <c r="J28" s="389"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
@@ -4968,8 +4954,8 @@
       <c r="F29" s="361"/>
       <c r="G29" s="362"/>
       <c r="H29" s="363"/>
-      <c r="I29" s="384"/>
-      <c r="J29" s="384"/>
+      <c r="I29" s="387"/>
+      <c r="J29" s="387"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
@@ -4990,45 +4976,45 @@
         <v>0</v>
       </c>
       <c r="H30" s="372"/>
-      <c r="I30" s="385"/>
-      <c r="J30" s="385"/>
+      <c r="I30" s="388"/>
+      <c r="J30" s="388"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="377">
+      <c r="C31" s="380">
         <f>C28*C29</f>
         <v>26880</v>
       </c>
-      <c r="D31" s="378"/>
-      <c r="E31" s="379">
+      <c r="D31" s="381"/>
+      <c r="E31" s="382">
         <f>E28*E29</f>
         <v>66000</v>
       </c>
-      <c r="F31" s="380"/>
+      <c r="F31" s="383"/>
       <c r="G31" s="373">
         <f>G28*G29</f>
         <v>0</v>
       </c>
       <c r="H31" s="374"/>
-      <c r="I31" s="379">
+      <c r="I31" s="382">
         <f>C31+E31+G31</f>
         <v>92880</v>
       </c>
-      <c r="J31" s="379"/>
+      <c r="J31" s="382"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="375"/>
-      <c r="D32" s="376"/>
+      <c r="C32" s="378"/>
+      <c r="D32" s="379"/>
       <c r="E32" s="359">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>1.2221052631578948</v>
       </c>
-      <c r="F32" s="381"/>
+      <c r="F32" s="384"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
       <c r="I32" s="359">
@@ -5084,15 +5070,15 @@
         <v>60000</v>
       </c>
       <c r="D36" s="357"/>
-      <c r="G36" s="448" t="s">
+      <c r="G36" s="375" t="s">
         <v>328</v>
       </c>
-      <c r="H36" s="448"/>
-      <c r="I36" s="437">
+      <c r="H36" s="375"/>
+      <c r="I36" s="376">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0.13095238095238093</v>
       </c>
-      <c r="J36" s="438"/>
+      <c r="J36" s="377"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6081,54 +6067,49 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
   </mergeCells>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="C35:D36">
+    <cfRule type="containsBlanks" priority="5">
+      <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:D26 I26 C28:G29 I28:I29">
+  <conditionalFormatting sqref="C26:E26">
+    <cfRule type="containsBlanks" priority="3">
+      <formula>LEN(TRIM(C26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:G29 I26 I28:I29">
     <cfRule type="containsBlanks" priority="18">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
+  <conditionalFormatting sqref="E26:H26">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
+      <formula>LEN(TRIM(E26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="5">
-      <formula>LEN(TRIM(C35))=0</formula>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="11" priority="24" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:J35">
-    <cfRule type="containsBlanks" priority="4">
+  <conditionalFormatting sqref="I35:J36">
+    <cfRule type="containsBlanks" priority="1">
       <formula>LEN(TRIM(I35))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="containsBlanks" priority="3">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J36">
-    <cfRule type="containsBlanks" priority="1">
-      <formula>LEN(TRIM(I36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9252,24 +9233,24 @@
     <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="D42:M46 C7:M35">
-    <cfRule type="containsBlanks" dxfId="12" priority="3">
+  <conditionalFormatting sqref="B51:M52">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>$C$49="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:M35 D42:M46">
+    <cfRule type="containsBlanks" dxfId="9" priority="3">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="11" priority="4">
-      <formula>LEN(TRIM(D17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="5">
+    <cfRule type="containsBlanks" dxfId="8" priority="5">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:M52">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>$C$49="No"</formula>
+  <conditionalFormatting sqref="D17:M18">
+    <cfRule type="containsBlanks" dxfId="7" priority="4">
+      <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9298,7 +9279,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9412,7 +9393,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="61">
-        <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
         <v>0.96649884641963768</v>
       </c>
       <c r="E7" s="49" t="str">
@@ -10305,11 +10286,11 @@
         <v>266</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="431">
+      <c r="D52" s="434">
         <f>D53+D54+D55</f>
         <v>2627003</v>
       </c>
-      <c r="E52" s="432"/>
+      <c r="E52" s="435"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10318,11 +10299,11 @@
         <v>236</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="434">
+      <c r="D53" s="437">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>2627003</v>
       </c>
-      <c r="E53" s="378"/>
+      <c r="E53" s="381"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10338,7 +10319,7 @@
         <v>136</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="441">
+      <c r="D54" s="442">
         <v>0</v>
       </c>
       <c r="E54" s="361"/>
@@ -10352,7 +10333,7 @@
         <v>135</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="441">
+      <c r="D55" s="442">
         <v>0</v>
       </c>
       <c r="E55" s="361"/>
@@ -10370,8 +10351,8 @@
         <v>139</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="433"/>
-      <c r="E57" s="433"/>
+      <c r="D57" s="436"/>
+      <c r="E57" s="436"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10417,11 +10398,11 @@
         <v>140</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="439">
+      <c r="D60" s="440">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>5212419.6936436612</v>
       </c>
-      <c r="E60" s="440"/>
+      <c r="E60" s="441"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10438,20 +10419,20 @@
       <c r="B63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="437">
+      <c r="D63" s="376">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.86417172441551726</v>
       </c>
-      <c r="E63" s="438"/>
+      <c r="E63" s="377"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="435">
+      <c r="D64" s="438">
         <v>0.14829999999999999</v>
       </c>
-      <c r="E64" s="436"/>
+      <c r="E64" s="439"/>
       <c r="F64" s="266" t="s">
         <v>252</v>
       </c>
@@ -10460,11 +10441,11 @@
       <c r="B65" s="292" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="435">
+      <c r="D65" s="438">
         <f>D64</f>
         <v>0.14829999999999999</v>
       </c>
-      <c r="E65" s="436"/>
+      <c r="E65" s="439"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11847,48 +11828,35 @@
     <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="I11 I13:I16 G14:H16 H13 G8:I8 I9 G9:H12">
-    <cfRule type="containsBlanks" dxfId="8" priority="10">
+  <conditionalFormatting sqref="E17:E19">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
+      <formula>LEN(TRIM(E17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19 I19">
+    <cfRule type="containsBlanks" dxfId="5" priority="4">
+      <formula>LEN(TRIM(G19))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H12 G14:H16 G8:I8 H13">
+    <cfRule type="containsBlanks" dxfId="4" priority="10">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="11">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8 I12 I10">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
-      <formula>LEN(TRIM(I8))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="9">
-      <formula>LEN(TRIM(I8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J16">
-    <cfRule type="containsBlanks" dxfId="6" priority="6">
-      <formula>LEN(TRIM(J8))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="7">
-      <formula>LEN(TRIM(J8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17 G19 I19 E19">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
-      <formula>LEN(TRIM(E17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:J19 J18 G8:J17">
-    <cfRule type="containsBlanks" dxfId="4" priority="3">
+  <conditionalFormatting sqref="G8:J19">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
-      <formula>LEN(TRIM(E18))=0</formula>
+  <conditionalFormatting sqref="I8:J16">
+    <cfRule type="containsBlanks" dxfId="2" priority="6">
+      <formula>LEN(TRIM(I8))=0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:I18">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(G18))=0</formula>
+    <cfRule type="containsBlanks" priority="7">
+      <formula>LEN(TRIM(I8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11904,8 +11872,8 @@
   </sheetPr>
   <dimension ref="A1:J922"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12307,7 +12275,7 @@
         <v>239</v>
       </c>
       <c r="G19" s="197">
-        <f>G18*Data!C$4/Dashboard!I5</f>
+        <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
         <v>0.87220769127477182</v>
       </c>
     </row>
@@ -12323,7 +12291,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-0.34893008567981088</v>
       </c>
-      <c r="E20" s="444" t="str">
+      <c r="E20" s="445" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12346,7 +12314,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-1.7284411932376176E-2</v>
       </c>
-      <c r="E21" s="444"/>
+      <c r="E21" s="445"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>0.56166881016905268</v>
@@ -12368,11 +12336,11 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E23" s="447" t="s">
+      <c r="E23" s="448" t="s">
         <v>231</v>
       </c>
-      <c r="F23" s="447"/>
-      <c r="G23" s="447"/>
+      <c r="F23" s="448"/>
+      <c r="G23" s="448"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12413,7 +12381,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>0.29894738681505517</v>
       </c>
-      <c r="F25" s="445">
+      <c r="F25" s="446">
         <f ca="1">SUM(C15:F15)</f>
         <v>0.11435185185185184</v>
       </c>
@@ -12440,7 +12408,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>0.49824564469175864</v>
       </c>
-      <c r="F26" s="446"/>
+      <c r="F26" s="447"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>1.4848051878183823</v>
@@ -12504,10 +12472,10 @@
       <c r="I30" s="88"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="442" t="s">
+      <c r="C31" s="443" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="443"/>
+      <c r="D31" s="444"/>
       <c r="E31" s="30" t="s">
         <v>219</v>
       </c>
@@ -13462,14 +13430,14 @@
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:F9 E13:F15">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
-      <formula>LEN(TRIM(E4))=0</formula>
+  <conditionalFormatting sqref="E25:E26 G25:G26">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+      <formula>$E$29</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E26 G25:G26">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
-      <formula>$E$29</formula>
+  <conditionalFormatting sqref="E4:F9 E13:F15">
+    <cfRule type="containsBlanks" dxfId="0" priority="5">
+      <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/financial_models/Opportunities/0697.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0697.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD76A4B4-D10B-4FC0-AC1B-B637D50BCDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{800CB743-53D0-4E1C-B6C2-06EF396B0ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="343">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1151,12 +1151,72 @@
   <si>
     <t>Expected Upside</t>
   </si>
+  <si>
+    <t>Allocation Analysis</t>
+  </si>
+  <si>
+    <t>1. The valuation quality rating (proxy of the "Error Term")</t>
+  </si>
+  <si>
+    <t>2. The probability of correctly forecasting the FCF based on the investment category</t>
+  </si>
+  <si>
+    <t>3. The business quality rating (proxy for not overestimating the exit)</t>
+  </si>
+  <si>
+    <t>80% chance of recession in US, and 50% chance of spilling over</t>
+  </si>
+  <si>
+    <t>4. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>60% chance of chinese recession</t>
+  </si>
+  <si>
+    <t>5. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>A = Upside in event of a win</t>
+  </si>
+  <si>
+    <t>B = Downside in event of a loss</t>
+  </si>
+  <si>
+    <t>W = The estimated probability of win</t>
+  </si>
+  <si>
+    <t>R = A/B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒ Half Kelly %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = [W – (1 – W)/R] /2</t>
+    </r>
+  </si>
+  <si>
+    <t>capped at</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="24">
+  <numFmts count="25">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1181,6 +1241,7 @@
     <numFmt numFmtId="182" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
     <numFmt numFmtId="183" formatCode="&quot;Breakeven Price = &quot;0.00"/>
     <numFmt numFmtId="184" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="0.000000000000000000%"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -2896,7 +2957,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="449">
+  <cellXfs count="459">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3795,6 +3856,30 @@
     <xf numFmtId="184" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4038,7 +4123,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4158,6 +4243,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4403,8 +4498,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:J29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4448,33 +4543,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="390" t="s">
+      <c r="C3" s="400" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="391"/>
+      <c r="D3" s="401"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="402" t="s">
+      <c r="I3" s="412" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="403"/>
+      <c r="J3" s="413"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="392" t="s">
+      <c r="C4" s="402" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="393"/>
+      <c r="D4" s="403"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4485,10 +4580,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="394">
+      <c r="C5" s="404">
         <v>44502</v>
       </c>
-      <c r="D5" s="393"/>
+      <c r="D5" s="403"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4496,10 +4591,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="385">
+      <c r="I5" s="395">
         <v>7528737440</v>
       </c>
-      <c r="J5" s="386"/>
+      <c r="J5" s="396"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4522,11 +4617,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="404">
+      <c r="I6" s="414">
         <f>I4*I5/1000000</f>
-        <v>13250.577894399999</v>
-      </c>
-      <c r="J6" s="405"/>
+        <v>13325.865268799998</v>
+      </c>
+      <c r="J6" s="415"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4535,7 +4630,7 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39)/I4</f>
-        <v>5.2823205567193408E-2</v>
+        <v>5.2524769377548249E-2</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40)/I4</f>
@@ -4589,41 +4684,41 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>1.295468384705458</v>
+        <v>1.3028290005276482</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>34.059921513255226</v>
+        <v>34.556709038208147</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="313" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="416">
+      <c r="C11" s="426">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="417"/>
+      <c r="D11" s="427"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="414" t="s">
+      <c r="I11" s="424" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="415"/>
+      <c r="J11" s="425"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="418">
+      <c r="C12" s="428">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="419"/>
+      <c r="D12" s="429"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4646,22 +4741,22 @@
         <v>217</v>
       </c>
       <c r="D14" s="184">
-        <f ca="1">MIN('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>1.1291929690158786</v>
+        <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
+        <v>1.1290947621298995</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>234</v>
       </c>
       <c r="F14" s="184">
-        <f ca="1">MAX('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>1.4848051878183823</v>
+        <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
+        <v>1.4847069809324032</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
-        <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>1.379176867963023</v>
+        <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
+        <v>1.3790786610770438</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4692,59 +4787,59 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>1.76</v>
-      </c>
-      <c r="C16" s="425">
+        <v>1.77</v>
+      </c>
+      <c r="C16" s="435">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-0.31637677956646415</v>
-      </c>
-      <c r="E16" s="422">
+        <v>-0.32085951351579445</v>
+      </c>
+      <c r="E16" s="432">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.1235</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>7.017045454545455E-2</v>
-      </c>
-      <c r="G16" s="409" t="s">
+        <v>6.9774011299435029E-2</v>
+      </c>
+      <c r="G16" s="419" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="406">
+      <c r="H16" s="416">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>0.87220769127477182</v>
-      </c>
-      <c r="I16" s="409" t="s">
+        <v>0.87210948438879266</v>
+      </c>
+      <c r="I16" s="419" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>0.88779230872522819</v>
+        <v>0.89789051561120736</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="290">
         <f ca="1">H14/(1+C16)</f>
-        <v>1.2537971526936571</v>
-      </c>
-      <c r="C17" s="426"/>
+        <v>1.2537078737064034</v>
+      </c>
+      <c r="C17" s="436"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="423"/>
+      <c r="E17" s="433"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
-        <v>9.8500781992264586E-2</v>
-      </c>
-      <c r="G17" s="410"/>
-      <c r="H17" s="407"/>
-      <c r="I17" s="410"/>
+        <v>9.8507796425406802E-2</v>
+      </c>
+      <c r="G17" s="420"/>
+      <c r="H17" s="417"/>
+      <c r="I17" s="420"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>0.38158946141888528</v>
+        <v>0.3815983893176107</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4752,22 +4847,22 @@
         <f>C35</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="C18" s="427"/>
+      <c r="C18" s="437"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.1537971526936571</v>
-      </c>
-      <c r="E18" s="424"/>
+        <v>0.15370787370640335</v>
+      </c>
+      <c r="E18" s="434"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>0.11227272727272726</v>
       </c>
-      <c r="G18" s="411"/>
-      <c r="H18" s="408"/>
-      <c r="I18" s="411"/>
+      <c r="G18" s="421"/>
+      <c r="H18" s="418"/>
+      <c r="I18" s="421"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>0.22779230872522827</v>
+        <v>0.22789051561120743</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4798,44 +4893,44 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="397"/>
-      <c r="D21" s="398"/>
-      <c r="E21" s="398"/>
-      <c r="F21" s="398"/>
-      <c r="G21" s="398"/>
-      <c r="H21" s="398"/>
-      <c r="I21" s="398"/>
-      <c r="J21" s="399"/>
+      <c r="C21" s="407"/>
+      <c r="D21" s="408"/>
+      <c r="E21" s="408"/>
+      <c r="F21" s="408"/>
+      <c r="G21" s="408"/>
+      <c r="H21" s="408"/>
+      <c r="I21" s="408"/>
+      <c r="J21" s="409"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="413" t="s">
+      <c r="C22" s="423" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="361"/>
-      <c r="E22" s="361"/>
-      <c r="F22" s="361"/>
-      <c r="G22" s="413"/>
-      <c r="H22" s="413"/>
-      <c r="I22" s="361"/>
-      <c r="J22" s="361"/>
+      <c r="D22" s="371"/>
+      <c r="E22" s="371"/>
+      <c r="F22" s="371"/>
+      <c r="G22" s="423"/>
+      <c r="H22" s="423"/>
+      <c r="I22" s="371"/>
+      <c r="J22" s="371"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="400"/>
-      <c r="D23" s="401"/>
-      <c r="E23" s="401"/>
-      <c r="F23" s="401"/>
-      <c r="G23" s="400"/>
-      <c r="H23" s="400"/>
-      <c r="I23" s="401"/>
-      <c r="J23" s="401"/>
+      <c r="C23" s="410"/>
+      <c r="D23" s="411"/>
+      <c r="E23" s="411"/>
+      <c r="F23" s="411"/>
+      <c r="G23" s="410"/>
+      <c r="H23" s="410"/>
+      <c r="I23" s="411"/>
+      <c r="J23" s="411"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4872,242 +4967,377 @@
       </c>
       <c r="J25" s="354">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>1.1033414943704183</v>
+        <v>1.1032629288616351</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="395">
+      <c r="C26" s="405">
         <v>44503</v>
       </c>
-      <c r="D26" s="396"/>
-      <c r="E26" s="431" t="str">
+      <c r="D26" s="406"/>
+      <c r="E26" s="441" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="432"/>
-      <c r="G26" s="432"/>
-      <c r="H26" s="433"/>
-      <c r="I26" s="412" t="s">
+      <c r="F26" s="442"/>
+      <c r="G26" s="442"/>
+      <c r="H26" s="443"/>
+      <c r="I26" s="422" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="412"/>
+      <c r="J26" s="422"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="421">
+      <c r="C27" s="431">
         <f>C31/D25</f>
         <v>4.48E-2</v>
       </c>
-      <c r="D27" s="384"/>
-      <c r="E27" s="420">
+      <c r="D27" s="394"/>
+      <c r="E27" s="430">
         <f>E31/D25</f>
         <v>0.11</v>
       </c>
-      <c r="F27" s="384"/>
-      <c r="G27" s="429">
+      <c r="F27" s="394"/>
+      <c r="G27" s="439">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="430"/>
-      <c r="I27" s="428">
+      <c r="H27" s="440"/>
+      <c r="I27" s="438">
         <f>C27+E27+G27</f>
         <v>0.15479999999999999</v>
       </c>
-      <c r="J27" s="428"/>
+      <c r="J27" s="438"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="356">
+      <c r="C28" s="366">
         <v>16000</v>
       </c>
-      <c r="D28" s="361"/>
-      <c r="E28" s="356">
+      <c r="D28" s="371"/>
+      <c r="E28" s="366">
         <v>60000</v>
       </c>
-      <c r="F28" s="361"/>
-      <c r="G28" s="385"/>
-      <c r="H28" s="386"/>
-      <c r="I28" s="389">
+      <c r="F28" s="371"/>
+      <c r="G28" s="395"/>
+      <c r="H28" s="396"/>
+      <c r="I28" s="399">
         <f>C28+E28+G28</f>
         <v>76000</v>
       </c>
-      <c r="J28" s="389"/>
+      <c r="J28" s="399"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="360">
+      <c r="C29" s="370">
         <v>1.68</v>
       </c>
-      <c r="D29" s="361"/>
-      <c r="E29" s="360">
+      <c r="D29" s="371"/>
+      <c r="E29" s="370">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F29" s="361"/>
-      <c r="G29" s="362"/>
-      <c r="H29" s="363"/>
-      <c r="I29" s="387"/>
-      <c r="J29" s="387"/>
+      <c r="F29" s="371"/>
+      <c r="G29" s="372"/>
+      <c r="H29" s="373"/>
+      <c r="I29" s="397"/>
+      <c r="J29" s="397"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="358">
+      <c r="C30" s="368">
         <f>C29*$I$5/1000000</f>
         <v>12648.278899199999</v>
       </c>
-      <c r="D30" s="368"/>
-      <c r="E30" s="358">
+      <c r="D30" s="378"/>
+      <c r="E30" s="368">
         <f>E29*$I$5/1000000</f>
         <v>8281.6111840000012</v>
       </c>
-      <c r="F30" s="368"/>
-      <c r="G30" s="371">
+      <c r="F30" s="378"/>
+      <c r="G30" s="381">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="372"/>
-      <c r="I30" s="388"/>
-      <c r="J30" s="388"/>
+      <c r="H30" s="382"/>
+      <c r="I30" s="398"/>
+      <c r="J30" s="398"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="380">
+      <c r="C31" s="390">
         <f>C28*C29</f>
         <v>26880</v>
       </c>
-      <c r="D31" s="381"/>
-      <c r="E31" s="382">
+      <c r="D31" s="391"/>
+      <c r="E31" s="392">
         <f>E28*E29</f>
         <v>66000</v>
       </c>
-      <c r="F31" s="383"/>
-      <c r="G31" s="373">
+      <c r="F31" s="393"/>
+      <c r="G31" s="383">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="374"/>
-      <c r="I31" s="382">
+      <c r="H31" s="384"/>
+      <c r="I31" s="392">
         <f>C31+E31+G31</f>
         <v>92880</v>
       </c>
-      <c r="J31" s="382"/>
+      <c r="J31" s="392"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="378"/>
-      <c r="D32" s="379"/>
-      <c r="E32" s="359">
+      <c r="C32" s="388"/>
+      <c r="D32" s="389"/>
+      <c r="E32" s="369">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>1.2221052631578948</v>
       </c>
-      <c r="F32" s="384"/>
+      <c r="F32" s="394"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="359">
+      <c r="I32" s="369">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>1.2221052631578948</v>
       </c>
-      <c r="J32" s="359"/>
+      <c r="J32" s="369"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="369"/>
-      <c r="D33" s="370"/>
-      <c r="E33" s="358">
+      <c r="C33" s="379"/>
+      <c r="D33" s="380"/>
+      <c r="E33" s="368">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>9200.9096503578949</v>
       </c>
-      <c r="F33" s="368"/>
+      <c r="F33" s="378"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="358">
+      <c r="I33" s="368">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>9200.9096503578949</v>
       </c>
-      <c r="J33" s="358"/>
+      <c r="J33" s="368"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>320</v>
       </c>
-      <c r="C35" s="364">
+      <c r="C35" s="374">
         <f>E29</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="D35" s="365"/>
-      <c r="G35" s="366" t="s">
+      <c r="D35" s="375"/>
+      <c r="G35" s="376" t="s">
         <v>321</v>
       </c>
-      <c r="H35" s="367"/>
-      <c r="I35" s="364">
+      <c r="H35" s="377"/>
+      <c r="I35" s="374">
         <v>1.9</v>
       </c>
-      <c r="J35" s="365"/>
+      <c r="J35" s="375"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>322</v>
       </c>
-      <c r="C36" s="356">
+      <c r="C36" s="366">
         <f>E28</f>
         <v>60000</v>
       </c>
-      <c r="D36" s="357"/>
-      <c r="G36" s="375" t="s">
+      <c r="D36" s="367"/>
+      <c r="G36" s="385" t="s">
         <v>328</v>
       </c>
-      <c r="H36" s="375"/>
-      <c r="I36" s="376">
+      <c r="H36" s="385"/>
+      <c r="I36" s="386">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0.13095238095238093</v>
       </c>
-      <c r="J36" s="377"/>
+      <c r="J36" s="387"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="G38" s="349" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="133"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F39" s="214">
+        <f>'Qualitative Analysis'!E8</f>
+        <v>0.51</v>
+      </c>
+      <c r="G39" s="358"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F40" s="214">
+        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
+        <v>0.8</v>
+      </c>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E41" s="359"/>
+      <c r="F41" s="360">
+        <f>'Qualitative Analysis'!E64</f>
+        <v>0.70296768707482993</v>
+      </c>
+      <c r="G41" s="358" t="s">
+        <v>333</v>
+      </c>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116"/>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E42" s="359">
+        <f>IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="102" t="str">
+        <f>IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
+        <v>So-so</v>
+      </c>
+      <c r="G42" s="74" t="s">
+        <v>335</v>
+      </c>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+    </row>
+    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F43" s="361">
+        <f>AVERAGE(80%*0.5,0.6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+    </row>
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F45" s="360">
+        <f>I35/C29-1</f>
+        <v>0.13095238095238093</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F46" s="360">
+        <f ca="1">D14/C29-1</f>
+        <v>-0.32791978444648839</v>
+      </c>
+    </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F48" s="214">
+        <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
+        <v>0.60259353741496602</v>
+      </c>
+      <c r="G48" s="74"/>
+    </row>
+    <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E49" s="362">
+        <f ca="1">F45/ABS(F46)</f>
+        <v>0.39934272698252032</v>
+      </c>
+      <c r="F49" s="363">
+        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
+        <v>0.39934272698252032</v>
+      </c>
+      <c r="G49" s="74"/>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E50" s="107">
+        <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="364">
+        <f ca="1">MIN(E50,H50)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="365" t="s">
+        <v>342</v>
+      </c>
+      <c r="H50" s="78">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6068,51 +6298,56 @@
     <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="5">
+    <cfRule type="containsBlanks" priority="6">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:E26">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:G29 I26 I28:I29">
-    <cfRule type="containsBlanks" priority="18">
+    <cfRule type="containsBlanks" priority="19">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="14" priority="2">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="11" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J36">
-    <cfRule type="containsBlanks" priority="1">
+    <cfRule type="containsBlanks" priority="2">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -6124,6 +6359,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20" xr:uid="{653EE4BA-4D98-4EE5-AD27-D0955626562F}">
       <formula1>"Slow Growers, Stalwarts, Fast Growers, Cyclicals, Turnarounds, Asset Plays "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F42" xr:uid="{CB3F70C4-C46F-461A-9520-C3AFCCC548A4}">
+      <formula1>"Strongly agree,agree,So-so,disagree,Strongly disagree"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -9370,11 +9608,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="59">
         <f>E46-I46-E50</f>
-        <v>7276516.0507563362</v>
+        <v>7275776.6768969977</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.3228992474854474</v>
+        <v>0.322968048350182</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9394,7 +9632,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
-        <v>0.96649884641963768</v>
+        <v>0.96640063953365829</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10268,11 +10506,11 @@
       </c>
       <c r="D50" s="214">
         <f>IF(E50=0, 0,E50/C50)</f>
-        <v>1.295468384705458</v>
+        <v>1.3028290005276482</v>
       </c>
       <c r="E50" s="218">
         <f>MAX(C50,C50*Dashboard!I10)</f>
-        <v>130129.79924366326</v>
+        <v>130869.17310300226</v>
       </c>
       <c r="I50" s="157"/>
     </row>
@@ -10286,11 +10524,11 @@
         <v>266</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="434">
+      <c r="D52" s="444">
         <f>D53+D54+D55</f>
         <v>2627003</v>
       </c>
-      <c r="E52" s="435"/>
+      <c r="E52" s="445"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10299,11 +10537,11 @@
         <v>236</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="437">
+      <c r="D53" s="447">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>2627003</v>
       </c>
-      <c r="E53" s="381"/>
+      <c r="E53" s="391"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10319,10 +10557,10 @@
         <v>136</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="442">
+      <c r="D54" s="452">
         <v>0</v>
       </c>
-      <c r="E54" s="361"/>
+      <c r="E54" s="371"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10333,10 +10571,10 @@
         <v>135</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="442">
+      <c r="D55" s="452">
         <v>0</v>
       </c>
-      <c r="E55" s="361"/>
+      <c r="E55" s="371"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10351,8 +10589,8 @@
         <v>139</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="436"/>
-      <c r="E57" s="436"/>
+      <c r="D57" s="446"/>
+      <c r="E57" s="446"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10398,11 +10636,11 @@
         <v>140</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="440">
+      <c r="D60" s="450">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>5212419.6936436612</v>
-      </c>
-      <c r="E60" s="441"/>
+        <v>5288446.4419030007</v>
+      </c>
+      <c r="E60" s="451"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10419,20 +10657,20 @@
       <c r="B63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="376">
+      <c r="D63" s="386">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.86417172441551726</v>
       </c>
-      <c r="E63" s="377"/>
+      <c r="E63" s="387"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="438">
+      <c r="D64" s="448">
         <v>0.14829999999999999</v>
       </c>
-      <c r="E64" s="439"/>
+      <c r="E64" s="449"/>
       <c r="F64" s="266" t="s">
         <v>252</v>
       </c>
@@ -10441,11 +10679,11 @@
       <c r="B65" s="292" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="438">
+      <c r="D65" s="448">
         <f>D64</f>
         <v>0.14829999999999999</v>
       </c>
-      <c r="E65" s="439"/>
+      <c r="E65" s="449"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11870,10 +12108,10 @@
     <tabColor rgb="FFB6D7A8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J922"/>
+  <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12256,7 +12494,7 @@
       </c>
       <c r="G18" s="137">
         <f>C18+C19+C20+C21</f>
-        <v>6566622.7007563366</v>
+        <v>6565883.3268969981</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12276,7 +12514,7 @@
       </c>
       <c r="G19" s="197">
         <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
-        <v>0.87220769127477182</v>
+        <v>0.87210948438879266</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12291,9 +12529,9 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-0.34893008567981088</v>
       </c>
-      <c r="E20" s="445" t="str">
+      <c r="E20" s="455" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
-        <v>⇒</v>
+        <v>Error!</v>
       </c>
       <c r="F20" s="146" t="s">
         <v>246</v>
@@ -12308,20 +12546,20 @@
       </c>
       <c r="C21" s="84">
         <f>-Asset_Model!E50</f>
-        <v>-130129.79924366326</v>
+        <v>-130869.17310300226</v>
       </c>
       <c r="D21" s="219">
         <f>C21/(Dashboard!I5/Data!C4)</f>
-        <v>-1.7284411932376176E-2</v>
-      </c>
-      <c r="E21" s="445"/>
+        <v>-1.7382618818355587E-2</v>
+      </c>
+      <c r="E21" s="455"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>0.56166881016905268</v>
       </c>
       <c r="G21" s="147">
         <f>SUM(D19:D21)</f>
-        <v>0.31053888110571914</v>
+        <v>0.31044067421973975</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12336,11 +12574,11 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E23" s="448" t="s">
+      <c r="E23" s="458" t="s">
         <v>231</v>
       </c>
-      <c r="F23" s="448"/>
-      <c r="G23" s="448"/>
+      <c r="F23" s="458"/>
+      <c r="G23" s="458"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12381,13 +12619,13 @@
         <f ca="1">G9*D25/G14</f>
         <v>0.29894738681505517</v>
       </c>
-      <c r="F25" s="446">
+      <c r="F25" s="456">
         <f ca="1">SUM(C15:F15)</f>
         <v>0.11435185185185184</v>
       </c>
       <c r="G25" s="206">
         <f ca="1">$F$25+E25+$G$19</f>
-        <v>1.2855069299416788</v>
+        <v>1.2854087230556996</v>
       </c>
       <c r="I25" s="74" t="s">
         <v>319</v>
@@ -12408,147 +12646,155 @@
         <f ca="1">G9*D26/G14</f>
         <v>0.49824564469175864</v>
       </c>
-      <c r="F26" s="447"/>
+      <c r="F26" s="457"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
-        <v>1.4848051878183823</v>
+        <v>1.4847069809324032</v>
       </c>
       <c r="I26" s="74" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="356"/>
+      <c r="D27" s="357"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="123"/>
+      <c r="I27" s="74"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="250" t="str">
+      <c r="C29" s="250" t="str">
         <f>"(Numbers in "&amp;Dashboard!J4&amp;" per share)"</f>
         <v>(Numbers in HKD per share)</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="90"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="71" t="s">
+      <c r="D29" s="127"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="90"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="252">
+      <c r="C30" s="252">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>1.1291929690158786</v>
-      </c>
-      <c r="D29" s="23" t="str">
-        <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
+        <v>1.1290947621298995</v>
+      </c>
+      <c r="D30" s="23" t="str">
+        <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
         <v>&lt;</v>
       </c>
-      <c r="E29" s="251">
+      <c r="E30" s="251">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>1.4848051878183823</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="124"/>
+        <v>1.4847069809324032</v>
+      </c>
+      <c r="F30" s="30"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="88"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="443" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="88"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="453" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="444"/>
-      <c r="E31" s="30" t="s">
+      <c r="D32" s="454"/>
+      <c r="E32" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F32" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="256" t="s">
+      <c r="G32" s="30"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="256" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="253">
-        <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
-        <v>1.379176867963023</v>
-      </c>
-      <c r="D32" s="119" t="str">
+      <c r="C33" s="253">
+        <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
+        <v>1.3790786610770438</v>
+      </c>
+      <c r="D33" s="119" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
-      <c r="E32" s="120">
-        <f ca="1">(C32-G19)/C9</f>
-        <v>38.37024889028099</v>
-      </c>
-      <c r="F32" s="158">
-        <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.0151591075927218</v>
-      </c>
-      <c r="G32" s="87"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="74"/>
-    </row>
-    <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="255" t="s">
-        <v>232</v>
-      </c>
-      <c r="C33" s="254">
-        <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>1.5276710142332039</v>
-      </c>
-      <c r="D33" s="208" t="str">
-        <f>D32</f>
-        <v>HKD</v>
-      </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>49.609112342211006</v>
+        <v>38.37024889028099</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.1244599438466123</v>
-      </c>
-      <c r="G33" s="281">
+        <v>1.0150868212768431</v>
+      </c>
+      <c r="G33" s="87"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="74"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="255" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="254">
+        <f ca="1">MAX(Asset_Model!D7,(G12/(1+G34)^G4+F25+G19)*Exchange_Rate)</f>
+        <v>1.5275728073472248</v>
+      </c>
+      <c r="D34" s="208" t="str">
+        <f>D33</f>
+        <v>HKD</v>
+      </c>
+      <c r="E34" s="120">
+        <f ca="1">(C34-G19)/C9</f>
+        <v>49.609112342211006</v>
+      </c>
+      <c r="F34" s="158">
+        <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>1.1243876575307337</v>
+      </c>
+      <c r="G34" s="281">
         <f>Dashboard!D10+4.5%</f>
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13423,16 +13669,17 @@
     <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E25:E26 G25:G26">
+  <conditionalFormatting sqref="E25:E27 G25:G27">
     <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
-      <formula>$E$29</formula>
+      <formula>$E$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F9 E13:F15">

--- a/financial_models/Opportunities/0697.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0697.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{800CB743-53D0-4E1C-B6C2-06EF396B0ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4267597F-6027-41FC-AB61-3CDFFF5D7FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1167,13 +1167,7 @@
     <t>80% chance of recession in US, and 50% chance of spilling over</t>
   </si>
   <si>
-    <t>4. The probability of a recession affecting the company</t>
-  </si>
-  <si>
     <t>60% chance of chinese recession</t>
-  </si>
-  <si>
-    <t>5. Is the upside very attractive?</t>
   </si>
   <si>
     <t>A = Upside in event of a win</t>
@@ -1210,6 +1204,12 @@
   </si>
   <si>
     <t>capped at</t>
+  </si>
+  <si>
+    <t>4. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>5. The probability of a recession affecting the company</t>
   </si>
 </sst>
 </file>
@@ -4498,8 +4498,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="E42" s="359">
         <f>IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
@@ -5242,7 +5242,7 @@
         <v>So-so</v>
       </c>
       <c r="G42" s="74" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H42" s="74"/>
       <c r="I42" s="74"/>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F43" s="361">
         <f>AVERAGE(80%*0.5,0.6)</f>
@@ -5264,7 +5264,7 @@
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F45" s="360">
         <f>I35/C29-1</f>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F46" s="360">
         <f ca="1">D14/C29-1</f>
@@ -5283,7 +5283,7 @@
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F48" s="214">
         <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E49" s="362">
         <f ca="1">F45/ABS(F46)</f>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E50" s="107">
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="365" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H50" s="78">
         <v>0.3</v>
@@ -6347,7 +6347,7 @@
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -9517,7 +9517,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9607,7 +9607,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="59">
-        <f>E46-I46-E50</f>
+        <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
         <v>7275776.6768969977</v>
       </c>
       <c r="E6" s="14">
@@ -9631,7 +9631,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="61">
-        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
         <v>0.96640063953365829</v>
       </c>
       <c r="E7" s="49" t="str">

--- a/financial_models/Opportunities/0697.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0697.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4267597F-6027-41FC-AB61-3CDFFF5D7FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E2C3EBC-D6A8-426B-9C17-D55DD73BCB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3880,20 +3880,167 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3910,7 +4057,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3932,152 +4078,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4543,33 +4543,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="400" t="s">
+      <c r="C3" s="388" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="401"/>
+      <c r="D3" s="389"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="412" t="s">
+      <c r="I3" s="398" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="413"/>
+      <c r="J3" s="399"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="402" t="s">
+      <c r="C4" s="390" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="403"/>
+      <c r="D4" s="391"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4580,10 +4580,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="404">
+      <c r="C5" s="392">
         <v>44502</v>
       </c>
-      <c r="D5" s="403"/>
+      <c r="D5" s="391"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4591,10 +4591,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="395">
+      <c r="I5" s="400">
         <v>7528737440</v>
       </c>
-      <c r="J5" s="396"/>
+      <c r="J5" s="401"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4617,11 +4617,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="414">
+      <c r="I6" s="402">
         <f>I4*I5/1000000</f>
-        <v>13325.865268799998</v>
-      </c>
-      <c r="J6" s="415"/>
+        <v>13627.0147664</v>
+      </c>
+      <c r="J6" s="403"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39)/I4</f>
-        <v>5.2524769377548249E-2</v>
+        <v>5.1364000993514028E-2</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40)/I4</f>
@@ -4684,41 +4684,41 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>1.3028290005276482</v>
+        <v>1.3322714638164086</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>34.556709038208147</v>
+        <v>36.543859138019847</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="313" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="426">
+      <c r="C11" s="412">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="427"/>
+      <c r="D11" s="413"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="424" t="s">
+      <c r="I11" s="410" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="425"/>
+      <c r="J11" s="411"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="428">
+      <c r="C12" s="366">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="429"/>
+      <c r="D12" s="367"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4742,21 +4742,21 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>1.1290947621298995</v>
+        <v>1.1287019345859817</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>234</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>1.4847069809324032</v>
+        <v>1.4843141533884854</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
-        <v>1.3790786610770438</v>
+        <v>1.378685833533126</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4787,59 +4787,59 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>1.77</v>
-      </c>
-      <c r="C16" s="435">
+        <v>1.81</v>
+      </c>
+      <c r="C16" s="376">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-0.32085951351579445</v>
-      </c>
-      <c r="E16" s="432">
+        <v>-0.33829511959495795</v>
+      </c>
+      <c r="E16" s="371">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.1235</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>6.9774011299435029E-2</v>
-      </c>
-      <c r="G16" s="419" t="s">
+        <v>6.8232044198895031E-2</v>
+      </c>
+      <c r="G16" s="379" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="416">
+      <c r="H16" s="404">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>0.87210948438879266</v>
-      </c>
-      <c r="I16" s="419" t="s">
+        <v>0.87171665684487487</v>
+      </c>
+      <c r="I16" s="379" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>0.89789051561120736</v>
+        <v>0.93828334315512518</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="290">
         <f ca="1">H14/(1+C16)</f>
-        <v>1.2537078737064034</v>
-      </c>
-      <c r="C17" s="436"/>
+        <v>1.2533507577573872</v>
+      </c>
+      <c r="C17" s="377"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="433"/>
+      <c r="E17" s="372"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
-        <v>9.8507796425406802E-2</v>
-      </c>
-      <c r="G17" s="420"/>
-      <c r="H17" s="417"/>
-      <c r="I17" s="420"/>
+        <v>9.8535864151052005E-2</v>
+      </c>
+      <c r="G17" s="380"/>
+      <c r="H17" s="405"/>
+      <c r="I17" s="380"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>0.3815983893176107</v>
+        <v>0.38163410091251238</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4847,22 +4847,22 @@
         <f>C35</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="C18" s="437"/>
+      <c r="C18" s="378"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.15370787370640335</v>
-      </c>
-      <c r="E18" s="434"/>
+        <v>0.15335075775738724</v>
+      </c>
+      <c r="E18" s="373"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>0.11227272727272726</v>
       </c>
-      <c r="G18" s="421"/>
-      <c r="H18" s="418"/>
-      <c r="I18" s="421"/>
+      <c r="G18" s="381"/>
+      <c r="H18" s="406"/>
+      <c r="I18" s="381"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>0.22789051561120743</v>
+        <v>0.22828334315512522</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4893,44 +4893,44 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="407"/>
-      <c r="D21" s="408"/>
-      <c r="E21" s="408"/>
-      <c r="F21" s="408"/>
-      <c r="G21" s="408"/>
-      <c r="H21" s="408"/>
-      <c r="I21" s="408"/>
-      <c r="J21" s="409"/>
+      <c r="C21" s="395"/>
+      <c r="D21" s="396"/>
+      <c r="E21" s="396"/>
+      <c r="F21" s="396"/>
+      <c r="G21" s="396"/>
+      <c r="H21" s="396"/>
+      <c r="I21" s="396"/>
+      <c r="J21" s="397"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="423" t="s">
+      <c r="C22" s="408" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="371"/>
-      <c r="E22" s="371"/>
-      <c r="F22" s="371"/>
-      <c r="G22" s="423"/>
-      <c r="H22" s="423"/>
-      <c r="I22" s="371"/>
-      <c r="J22" s="371"/>
+      <c r="D22" s="409"/>
+      <c r="E22" s="409"/>
+      <c r="F22" s="409"/>
+      <c r="G22" s="408"/>
+      <c r="H22" s="408"/>
+      <c r="I22" s="409"/>
+      <c r="J22" s="409"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="410"/>
-      <c r="D23" s="411"/>
-      <c r="E23" s="411"/>
-      <c r="F23" s="411"/>
-      <c r="G23" s="410"/>
-      <c r="H23" s="410"/>
-      <c r="I23" s="411"/>
-      <c r="J23" s="411"/>
+      <c r="C23" s="374"/>
+      <c r="D23" s="375"/>
+      <c r="E23" s="375"/>
+      <c r="F23" s="375"/>
+      <c r="G23" s="374"/>
+      <c r="H23" s="374"/>
+      <c r="I23" s="375"/>
+      <c r="J23" s="375"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4967,213 +4967,213 @@
       </c>
       <c r="J25" s="354">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>1.1032629288616351</v>
+        <v>1.1029486668265007</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="405">
+      <c r="C26" s="393">
         <v>44503</v>
       </c>
-      <c r="D26" s="406"/>
-      <c r="E26" s="441" t="str">
+      <c r="D26" s="394"/>
+      <c r="E26" s="385" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="442"/>
-      <c r="G26" s="442"/>
-      <c r="H26" s="443"/>
-      <c r="I26" s="422" t="s">
+      <c r="F26" s="386"/>
+      <c r="G26" s="386"/>
+      <c r="H26" s="387"/>
+      <c r="I26" s="407" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="422"/>
+      <c r="J26" s="407"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="431">
+      <c r="C27" s="370">
         <f>C31/D25</f>
         <v>4.48E-2</v>
       </c>
-      <c r="D27" s="394"/>
-      <c r="E27" s="430">
+      <c r="D27" s="369"/>
+      <c r="E27" s="368">
         <f>E31/D25</f>
         <v>0.11</v>
       </c>
-      <c r="F27" s="394"/>
-      <c r="G27" s="439">
+      <c r="F27" s="369"/>
+      <c r="G27" s="383">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="440"/>
-      <c r="I27" s="438">
+      <c r="H27" s="384"/>
+      <c r="I27" s="382">
         <f>C27+E27+G27</f>
         <v>0.15479999999999999</v>
       </c>
-      <c r="J27" s="438"/>
+      <c r="J27" s="382"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="366">
+      <c r="C28" s="418">
         <v>16000</v>
       </c>
-      <c r="D28" s="371"/>
-      <c r="E28" s="366">
+      <c r="D28" s="409"/>
+      <c r="E28" s="418">
         <v>60000</v>
       </c>
-      <c r="F28" s="371"/>
-      <c r="G28" s="395"/>
-      <c r="H28" s="396"/>
-      <c r="I28" s="399">
+      <c r="F28" s="409"/>
+      <c r="G28" s="400"/>
+      <c r="H28" s="401"/>
+      <c r="I28" s="417">
         <f>C28+E28+G28</f>
         <v>76000</v>
       </c>
-      <c r="J28" s="399"/>
+      <c r="J28" s="417"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="370">
+      <c r="C29" s="419">
         <v>1.68</v>
       </c>
-      <c r="D29" s="371"/>
-      <c r="E29" s="370">
+      <c r="D29" s="409"/>
+      <c r="E29" s="419">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F29" s="371"/>
-      <c r="G29" s="372"/>
-      <c r="H29" s="373"/>
-      <c r="I29" s="397"/>
-      <c r="J29" s="397"/>
+      <c r="F29" s="409"/>
+      <c r="G29" s="429"/>
+      <c r="H29" s="430"/>
+      <c r="I29" s="414"/>
+      <c r="J29" s="414"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="368">
+      <c r="C30" s="420">
         <f>C29*$I$5/1000000</f>
         <v>12648.278899199999</v>
       </c>
-      <c r="D30" s="378"/>
-      <c r="E30" s="368">
+      <c r="D30" s="421"/>
+      <c r="E30" s="420">
         <f>E29*$I$5/1000000</f>
         <v>8281.6111840000012</v>
       </c>
-      <c r="F30" s="378"/>
-      <c r="G30" s="381">
+      <c r="F30" s="421"/>
+      <c r="G30" s="437">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="382"/>
-      <c r="I30" s="398"/>
-      <c r="J30" s="398"/>
+      <c r="H30" s="438"/>
+      <c r="I30" s="415"/>
+      <c r="J30" s="415"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="390">
+      <c r="C31" s="424">
         <f>C28*C29</f>
         <v>26880</v>
       </c>
-      <c r="D31" s="391"/>
-      <c r="E31" s="392">
+      <c r="D31" s="425"/>
+      <c r="E31" s="416">
         <f>E28*E29</f>
         <v>66000</v>
       </c>
-      <c r="F31" s="393"/>
-      <c r="G31" s="383">
+      <c r="F31" s="426"/>
+      <c r="G31" s="439">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="384"/>
-      <c r="I31" s="392">
+      <c r="H31" s="440"/>
+      <c r="I31" s="416">
         <f>C31+E31+G31</f>
         <v>92880</v>
       </c>
-      <c r="J31" s="392"/>
+      <c r="J31" s="416"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="388"/>
-      <c r="D32" s="389"/>
-      <c r="E32" s="369">
+      <c r="C32" s="422"/>
+      <c r="D32" s="423"/>
+      <c r="E32" s="427">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>1.2221052631578948</v>
       </c>
-      <c r="F32" s="394"/>
+      <c r="F32" s="369"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="369">
+      <c r="I32" s="427">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>1.2221052631578948</v>
       </c>
-      <c r="J32" s="369"/>
+      <c r="J32" s="427"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="379"/>
-      <c r="D33" s="380"/>
-      <c r="E33" s="368">
+      <c r="C33" s="435"/>
+      <c r="D33" s="436"/>
+      <c r="E33" s="420">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>9200.9096503578949</v>
       </c>
-      <c r="F33" s="378"/>
+      <c r="F33" s="421"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="368">
+      <c r="I33" s="420">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>9200.9096503578949</v>
       </c>
-      <c r="J33" s="368"/>
+      <c r="J33" s="420"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>320</v>
       </c>
-      <c r="C35" s="374">
+      <c r="C35" s="431">
         <f>E29</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="D35" s="375"/>
-      <c r="G35" s="376" t="s">
+      <c r="D35" s="432"/>
+      <c r="G35" s="433" t="s">
         <v>321</v>
       </c>
-      <c r="H35" s="377"/>
-      <c r="I35" s="374">
+      <c r="H35" s="434"/>
+      <c r="I35" s="431">
         <v>1.9</v>
       </c>
-      <c r="J35" s="375"/>
+      <c r="J35" s="432"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>322</v>
       </c>
-      <c r="C36" s="366">
+      <c r="C36" s="418">
         <f>E28</f>
         <v>60000</v>
       </c>
-      <c r="D36" s="367"/>
-      <c r="G36" s="385" t="s">
+      <c r="D36" s="428"/>
+      <c r="G36" s="441" t="s">
         <v>328</v>
       </c>
-      <c r="H36" s="385"/>
-      <c r="I36" s="386">
+      <c r="H36" s="441"/>
+      <c r="I36" s="442">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0.13095238095238093</v>
       </c>
-      <c r="J36" s="387"/>
+      <c r="J36" s="443"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="F46" s="360">
         <f ca="1">D14/C29-1</f>
-        <v>-0.32791978444648839</v>
+        <v>-0.32815361036548707</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5297,11 +5297,11 @@
       </c>
       <c r="E49" s="362">
         <f ca="1">F45/ABS(F46)</f>
-        <v>0.39934272698252032</v>
+        <v>0.39905817524460674</v>
       </c>
       <c r="F49" s="363">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>0.39934272698252032</v>
+        <v>0.39905817524460674</v>
       </c>
       <c r="G49" s="74"/>
     </row>
@@ -6242,16 +6242,34 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6268,34 +6286,16 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="6">
@@ -9608,11 +9608,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="59">
         <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
-        <v>7275776.6768969977</v>
+        <v>7272819.1814596411</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.322968048350182</v>
+        <v>0.32324325180912095</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9632,7 +9632,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>0.96640063953365829</v>
+        <v>0.96600781198974062</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10506,11 +10506,11 @@
       </c>
       <c r="D50" s="214">
         <f>IF(E50=0, 0,E50/C50)</f>
-        <v>1.3028290005276482</v>
+        <v>1.3322714638164086</v>
       </c>
       <c r="E50" s="218">
         <f>MAX(C50,C50*Dashboard!I10)</f>
-        <v>130869.17310300226</v>
+        <v>133826.66854035825</v>
       </c>
       <c r="I50" s="157"/>
     </row>
@@ -10541,7 +10541,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>2627003</v>
       </c>
-      <c r="E53" s="391"/>
+      <c r="E53" s="425"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10560,7 +10560,7 @@
       <c r="D54" s="452">
         <v>0</v>
       </c>
-      <c r="E54" s="371"/>
+      <c r="E54" s="409"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10574,7 +10574,7 @@
       <c r="D55" s="452">
         <v>0</v>
       </c>
-      <c r="E55" s="371"/>
+      <c r="E55" s="409"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10638,7 +10638,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="450">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>5288446.4419030007</v>
+        <v>5592553.4349403586</v>
       </c>
       <c r="E60" s="451"/>
       <c r="F60" s="6"/>
@@ -10657,11 +10657,11 @@
       <c r="B63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="386">
+      <c r="D63" s="442">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.86417172441551726</v>
       </c>
-      <c r="E63" s="387"/>
+      <c r="E63" s="443"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
@@ -12494,7 +12494,7 @@
       </c>
       <c r="G18" s="137">
         <f>C18+C19+C20+C21</f>
-        <v>6565883.3268969981</v>
+        <v>6562925.8314596415</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12514,7 +12514,7 @@
       </c>
       <c r="G19" s="197">
         <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
-        <v>0.87210948438879266</v>
+        <v>0.87171665684487487</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="E20" s="455" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
-        <v>Error!</v>
+        <v>⇒</v>
       </c>
       <c r="F20" s="146" t="s">
         <v>246</v>
@@ -12546,11 +12546,11 @@
       </c>
       <c r="C21" s="84">
         <f>-Asset_Model!E50</f>
-        <v>-130869.17310300226</v>
+        <v>-133826.66854035825</v>
       </c>
       <c r="D21" s="219">
         <f>C21/(Dashboard!I5/Data!C4)</f>
-        <v>-1.7382618818355587E-2</v>
+        <v>-1.7775446362273226E-2</v>
       </c>
       <c r="E21" s="455"/>
       <c r="F21" s="148">
@@ -12559,7 +12559,7 @@
       </c>
       <c r="G21" s="147">
         <f>SUM(D19:D21)</f>
-        <v>0.31044067421973975</v>
+        <v>0.31004784667582208</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12625,7 +12625,7 @@
       </c>
       <c r="G25" s="206">
         <f ca="1">$F$25+E25+$G$19</f>
-        <v>1.2854087230556996</v>
+        <v>1.2850158955117819</v>
       </c>
       <c r="I25" s="74" t="s">
         <v>319</v>
@@ -12649,7 +12649,7 @@
       <c r="F26" s="457"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
-        <v>1.4847069809324032</v>
+        <v>1.4843141533884854</v>
       </c>
       <c r="I26" s="74" t="s">
         <v>318</v>
@@ -12694,7 +12694,7 @@
       </c>
       <c r="C30" s="252">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>1.1290947621298995</v>
+        <v>1.1287019345859817</v>
       </c>
       <c r="D30" s="23" t="str">
         <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
@@ -12702,7 +12702,7 @@
       </c>
       <c r="E30" s="251">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>1.4847069809324032</v>
+        <v>1.4843141533884854</v>
       </c>
       <c r="F30" s="30"/>
       <c r="H30" s="6"/>
@@ -12738,7 +12738,7 @@
       </c>
       <c r="C33" s="253">
         <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
-        <v>1.3790786610770438</v>
+        <v>1.378685833533126</v>
       </c>
       <c r="D33" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12750,7 +12750,7 @@
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.0150868212768431</v>
+        <v>1.0147976760133277</v>
       </c>
       <c r="G33" s="87"/>
       <c r="H33" s="6"/>
@@ -12762,7 +12762,7 @@
       </c>
       <c r="C34" s="254">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G34)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>1.5275728073472248</v>
+        <v>1.527179979803307</v>
       </c>
       <c r="D34" s="208" t="str">
         <f>D33</f>
@@ -12774,7 +12774,7 @@
       </c>
       <c r="F34" s="158">
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.1243876575307337</v>
+        <v>1.1240985122672182</v>
       </c>
       <c r="G34" s="281">
         <f>Dashboard!D10+4.5%</f>

--- a/financial_models/Opportunities/0697.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0697.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E2C3EBC-D6A8-426B-9C17-D55DD73BCB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789106F7-BADF-43C0-A204-5847FE9ABFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="344">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1210,6 +1210,9 @@
   </si>
   <si>
     <t>5. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>Quarter</t>
   </si>
 </sst>
 </file>
@@ -2957,7 +2960,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="459">
+  <cellXfs count="458">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3611,9 +3614,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="182" fontId="2" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3880,66 +3880,78 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3966,16 +3978,14 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3993,13 +4003,21 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4012,72 +4030,54 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4498,8 +4498,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4527,7 +4527,7 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="308" t="str">
+      <c r="C2" s="307" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0697.HK : SHOUCHENG</v>
       </c>
@@ -4543,27 +4543,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="388" t="s">
+      <c r="C3" s="399" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="389"/>
+      <c r="D3" s="400"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="398" t="s">
+      <c r="I3" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="399"/>
+      <c r="J3" s="412"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="390" t="s">
+      <c r="C4" s="401" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="391"/>
+      <c r="D4" s="402"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4580,10 +4580,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="392">
+      <c r="C5" s="403">
         <v>44502</v>
       </c>
-      <c r="D5" s="391"/>
+      <c r="D5" s="402"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4591,10 +4591,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="400">
+      <c r="I5" s="394">
         <v>7528737440</v>
       </c>
-      <c r="J5" s="401"/>
+      <c r="J5" s="395"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4602,26 +4602,26 @@
       <c r="B6" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="270">
+      <c r="C6" s="269">
         <v>8</v>
       </c>
-      <c r="D6" s="271">
+      <c r="D6" s="270">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
         <v>44985</v>
       </c>
-      <c r="E6" s="352">
-        <f>Data!C3</f>
+      <c r="E6" s="351">
+        <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
         <v>44561</v>
       </c>
       <c r="G6" s="134" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="402">
+      <c r="I6" s="413">
         <f>I4*I5/1000000</f>
         <v>13627.0147664</v>
       </c>
-      <c r="J6" s="403"/>
+      <c r="J6" s="414"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4653,8 +4653,8 @@
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="301"/>
-      <c r="D9" s="299"/>
+      <c r="C9" s="300"/>
+      <c r="D9" s="298"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
@@ -4672,10 +4672,10 @@
       <c r="B10" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="300" t="s">
+      <c r="C10" s="299" t="s">
         <v>275</v>
       </c>
-      <c r="D10" s="300">
+      <c r="D10" s="299">
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="E10" s="5"/>
@@ -4692,33 +4692,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="313" t="s">
+      <c r="B11" s="312" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="412">
+      <c r="C11" s="425">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="413"/>
+      <c r="D11" s="426"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="410" t="s">
+      <c r="I11" s="423" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="411"/>
+      <c r="J11" s="424"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="314" t="s">
+      <c r="B12" s="313" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="366">
+      <c r="C12" s="427">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="367"/>
+      <c r="D12" s="428"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4789,14 +4789,14 @@
         <f>I4</f>
         <v>1.81</v>
       </c>
-      <c r="C16" s="376">
+      <c r="C16" s="434">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
         <v>-0.33829511959495795</v>
       </c>
-      <c r="E16" s="371">
+      <c r="E16" s="431">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.1235</v>
       </c>
@@ -4804,14 +4804,14 @@
         <f>E16/B16</f>
         <v>6.8232044198895031E-2</v>
       </c>
-      <c r="G16" s="379" t="s">
+      <c r="G16" s="418" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="404">
+      <c r="H16" s="415">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>0.87171665684487487</v>
       </c>
-      <c r="I16" s="379" t="s">
+      <c r="I16" s="418" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4820,46 +4820,46 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="290">
+      <c r="B17" s="289">
         <f ca="1">H14/(1+C16)</f>
         <v>1.2533507577573872</v>
       </c>
-      <c r="C17" s="377"/>
-      <c r="D17" s="289">
+      <c r="C17" s="435"/>
+      <c r="D17" s="288">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="372"/>
+      <c r="E17" s="432"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>9.8535864151052005E-2</v>
       </c>
-      <c r="G17" s="380"/>
-      <c r="H17" s="405"/>
-      <c r="I17" s="380"/>
+      <c r="G17" s="419"/>
+      <c r="H17" s="416"/>
+      <c r="I17" s="419"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>0.38163410091251238</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="355">
+      <c r="B18" s="354">
         <f>C35</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="C18" s="378"/>
+      <c r="C18" s="436"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
         <v>0.15335075775738724</v>
       </c>
-      <c r="E18" s="373"/>
+      <c r="E18" s="433"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>0.11227272727272726</v>
       </c>
-      <c r="G18" s="381"/>
-      <c r="H18" s="406"/>
-      <c r="I18" s="381"/>
+      <c r="G18" s="420"/>
+      <c r="H18" s="417"/>
+      <c r="I18" s="420"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>0.22828334315512522</v>
@@ -4877,7 +4877,7 @@
       <c r="C20" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="291" t="s">
+      <c r="D20" s="290" t="s">
         <v>317</v>
       </c>
       <c r="E20" s="266" t="s">
@@ -4893,44 +4893,44 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="395"/>
-      <c r="D21" s="396"/>
-      <c r="E21" s="396"/>
-      <c r="F21" s="396"/>
-      <c r="G21" s="396"/>
-      <c r="H21" s="396"/>
-      <c r="I21" s="396"/>
-      <c r="J21" s="397"/>
+      <c r="C21" s="406"/>
+      <c r="D21" s="407"/>
+      <c r="E21" s="407"/>
+      <c r="F21" s="407"/>
+      <c r="G21" s="407"/>
+      <c r="H21" s="407"/>
+      <c r="I21" s="407"/>
+      <c r="J21" s="408"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="408" t="s">
+      <c r="C22" s="422" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="409"/>
-      <c r="E22" s="409"/>
-      <c r="F22" s="409"/>
-      <c r="G22" s="408"/>
-      <c r="H22" s="408"/>
-      <c r="I22" s="409"/>
-      <c r="J22" s="409"/>
+      <c r="D22" s="370"/>
+      <c r="E22" s="370"/>
+      <c r="F22" s="370"/>
+      <c r="G22" s="422"/>
+      <c r="H22" s="422"/>
+      <c r="I22" s="370"/>
+      <c r="J22" s="370"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="374"/>
-      <c r="D23" s="375"/>
-      <c r="E23" s="375"/>
-      <c r="F23" s="375"/>
-      <c r="G23" s="374"/>
-      <c r="H23" s="374"/>
-      <c r="I23" s="375"/>
-      <c r="J23" s="375"/>
+      <c r="C23" s="409"/>
+      <c r="D23" s="410"/>
+      <c r="E23" s="410"/>
+      <c r="F23" s="410"/>
+      <c r="G23" s="409"/>
+      <c r="H23" s="409"/>
+      <c r="I23" s="410"/>
+      <c r="J23" s="410"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4959,13 +4959,13 @@
         <v>323</v>
       </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="353">
+      <c r="H25" s="352">
         <v>0.15</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="J25" s="354">
+      <c r="J25" s="353">
         <f ca="1">H14/(H25+C16+1)</f>
         <v>1.1029486668265007</v>
       </c>
@@ -4974,213 +4974,213 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="393">
+      <c r="C26" s="404">
         <v>44503</v>
       </c>
-      <c r="D26" s="394"/>
-      <c r="E26" s="385" t="str">
+      <c r="D26" s="405"/>
+      <c r="E26" s="440" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="386"/>
-      <c r="G26" s="386"/>
-      <c r="H26" s="387"/>
-      <c r="I26" s="407" t="s">
+      <c r="F26" s="441"/>
+      <c r="G26" s="441"/>
+      <c r="H26" s="442"/>
+      <c r="I26" s="421" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="407"/>
+      <c r="J26" s="421"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="370">
+      <c r="C27" s="430">
         <f>C31/D25</f>
         <v>4.48E-2</v>
       </c>
-      <c r="D27" s="369"/>
-      <c r="E27" s="368">
+      <c r="D27" s="393"/>
+      <c r="E27" s="429">
         <f>E31/D25</f>
         <v>0.11</v>
       </c>
-      <c r="F27" s="369"/>
-      <c r="G27" s="383">
+      <c r="F27" s="393"/>
+      <c r="G27" s="438">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="384"/>
-      <c r="I27" s="382">
+      <c r="H27" s="439"/>
+      <c r="I27" s="437">
         <f>C27+E27+G27</f>
         <v>0.15479999999999999</v>
       </c>
-      <c r="J27" s="382"/>
+      <c r="J27" s="437"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="418">
+      <c r="C28" s="365">
         <v>16000</v>
       </c>
-      <c r="D28" s="409"/>
-      <c r="E28" s="418">
+      <c r="D28" s="370"/>
+      <c r="E28" s="365">
         <v>60000</v>
       </c>
-      <c r="F28" s="409"/>
-      <c r="G28" s="400"/>
-      <c r="H28" s="401"/>
-      <c r="I28" s="417">
+      <c r="F28" s="370"/>
+      <c r="G28" s="394"/>
+      <c r="H28" s="395"/>
+      <c r="I28" s="398">
         <f>C28+E28+G28</f>
         <v>76000</v>
       </c>
-      <c r="J28" s="417"/>
+      <c r="J28" s="398"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="419">
+      <c r="C29" s="369">
         <v>1.68</v>
       </c>
-      <c r="D29" s="409"/>
-      <c r="E29" s="419">
+      <c r="D29" s="370"/>
+      <c r="E29" s="369">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F29" s="409"/>
-      <c r="G29" s="429"/>
-      <c r="H29" s="430"/>
-      <c r="I29" s="414"/>
-      <c r="J29" s="414"/>
+      <c r="F29" s="370"/>
+      <c r="G29" s="371"/>
+      <c r="H29" s="372"/>
+      <c r="I29" s="396"/>
+      <c r="J29" s="396"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="420">
+      <c r="C30" s="367">
         <f>C29*$I$5/1000000</f>
         <v>12648.278899199999</v>
       </c>
-      <c r="D30" s="421"/>
-      <c r="E30" s="420">
+      <c r="D30" s="377"/>
+      <c r="E30" s="367">
         <f>E29*$I$5/1000000</f>
         <v>8281.6111840000012</v>
       </c>
-      <c r="F30" s="421"/>
-      <c r="G30" s="437">
+      <c r="F30" s="377"/>
+      <c r="G30" s="380">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="438"/>
-      <c r="I30" s="415"/>
-      <c r="J30" s="415"/>
+      <c r="H30" s="381"/>
+      <c r="I30" s="397"/>
+      <c r="J30" s="397"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="424">
+      <c r="C31" s="389">
         <f>C28*C29</f>
         <v>26880</v>
       </c>
-      <c r="D31" s="425"/>
-      <c r="E31" s="416">
+      <c r="D31" s="390"/>
+      <c r="E31" s="391">
         <f>E28*E29</f>
         <v>66000</v>
       </c>
-      <c r="F31" s="426"/>
-      <c r="G31" s="439">
+      <c r="F31" s="392"/>
+      <c r="G31" s="382">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="440"/>
-      <c r="I31" s="416">
+      <c r="H31" s="383"/>
+      <c r="I31" s="391">
         <f>C31+E31+G31</f>
         <v>92880</v>
       </c>
-      <c r="J31" s="416"/>
+      <c r="J31" s="391"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="422"/>
-      <c r="D32" s="423"/>
-      <c r="E32" s="427">
+      <c r="C32" s="387"/>
+      <c r="D32" s="388"/>
+      <c r="E32" s="368">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>1.2221052631578948</v>
       </c>
-      <c r="F32" s="369"/>
+      <c r="F32" s="393"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="427">
+      <c r="I32" s="368">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>1.2221052631578948</v>
       </c>
-      <c r="J32" s="427"/>
+      <c r="J32" s="368"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="435"/>
-      <c r="D33" s="436"/>
-      <c r="E33" s="420">
+      <c r="C33" s="378"/>
+      <c r="D33" s="379"/>
+      <c r="E33" s="367">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>9200.9096503578949</v>
       </c>
-      <c r="F33" s="421"/>
+      <c r="F33" s="377"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="420">
+      <c r="I33" s="367">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>9200.9096503578949</v>
       </c>
-      <c r="J33" s="420"/>
+      <c r="J33" s="367"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>320</v>
       </c>
-      <c r="C35" s="431">
+      <c r="C35" s="373">
         <f>E29</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="D35" s="432"/>
-      <c r="G35" s="433" t="s">
+      <c r="D35" s="374"/>
+      <c r="G35" s="375" t="s">
         <v>321</v>
       </c>
-      <c r="H35" s="434"/>
-      <c r="I35" s="431">
+      <c r="H35" s="376"/>
+      <c r="I35" s="373">
         <v>1.9</v>
       </c>
-      <c r="J35" s="432"/>
+      <c r="J35" s="374"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>322</v>
       </c>
-      <c r="C36" s="418">
+      <c r="C36" s="365">
         <f>E28</f>
         <v>60000</v>
       </c>
-      <c r="D36" s="428"/>
-      <c r="G36" s="441" t="s">
+      <c r="D36" s="366"/>
+      <c r="G36" s="384" t="s">
         <v>328</v>
       </c>
-      <c r="H36" s="441"/>
-      <c r="I36" s="442">
+      <c r="H36" s="384"/>
+      <c r="I36" s="385">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0.13095238095238093</v>
       </c>
-      <c r="J36" s="443"/>
+      <c r="J36" s="386"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="G38" s="349" t="s">
+      <c r="G38" s="348" t="s">
         <v>141</v>
       </c>
       <c r="H38" s="133"/>
@@ -5195,7 +5195,7 @@
         <f>'Qualitative Analysis'!E8</f>
         <v>0.51</v>
       </c>
-      <c r="G39" s="358"/>
+      <c r="G39" s="357"/>
       <c r="H39" s="116"/>
       <c r="I39" s="116"/>
       <c r="J39" s="116"/>
@@ -5217,12 +5217,12 @@
       <c r="B41" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E41" s="359"/>
-      <c r="F41" s="360">
+      <c r="E41" s="358"/>
+      <c r="F41" s="359">
         <f>'Qualitative Analysis'!E64</f>
         <v>0.70296768707482993</v>
       </c>
-      <c r="G41" s="358" t="s">
+      <c r="G41" s="357" t="s">
         <v>333</v>
       </c>
       <c r="H41" s="116"/>
@@ -5233,7 +5233,7 @@
       <c r="B42" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E42" s="359">
+      <c r="E42" s="358">
         <f>IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
         <v>0.5</v>
       </c>
@@ -5252,7 +5252,7 @@
       <c r="B43" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F43" s="361">
+      <c r="F43" s="360">
         <f>AVERAGE(80%*0.5,0.6)</f>
         <v>0.5</v>
       </c>
@@ -5266,7 +5266,7 @@
       <c r="B45" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="F45" s="360">
+      <c r="F45" s="359">
         <f>I35/C29-1</f>
         <v>0.13095238095238093</v>
       </c>
@@ -5275,7 +5275,7 @@
       <c r="B46" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F46" s="360">
+      <c r="F46" s="359">
         <f ca="1">D14/C29-1</f>
         <v>-0.32815361036548707</v>
       </c>
@@ -5295,11 +5295,11 @@
       <c r="B49" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E49" s="362">
+      <c r="E49" s="361">
         <f ca="1">F45/ABS(F46)</f>
         <v>0.39905817524460674</v>
       </c>
-      <c r="F49" s="363">
+      <c r="F49" s="362">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
         <v>0.39905817524460674</v>
       </c>
@@ -5313,11 +5313,11 @@
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
         <v>0</v>
       </c>
-      <c r="F50" s="364">
+      <c r="F50" s="363">
         <f ca="1">MIN(E50,H50)</f>
         <v>0</v>
       </c>
-      <c r="G50" s="365" t="s">
+      <c r="G50" s="364" t="s">
         <v>340</v>
       </c>
       <c r="H50" s="78">
@@ -6242,34 +6242,16 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6286,16 +6268,34 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="6">
@@ -6380,7 +6380,7 @@
   <dimension ref="A1:N941"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6471,47 +6471,47 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="42"/>
-      <c r="C6" s="279">
+      <c r="C6" s="278">
         <f>C3</f>
         <v>44561</v>
       </c>
-      <c r="D6" s="280">
+      <c r="D6" s="279">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
         <v>44196</v>
       </c>
-      <c r="E6" s="280">
+      <c r="E6" s="279">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
         <v>43830</v>
       </c>
-      <c r="F6" s="280">
+      <c r="F6" s="279">
         <f t="shared" si="0"/>
         <v>43465</v>
       </c>
-      <c r="G6" s="280">
+      <c r="G6" s="279">
         <f t="shared" si="0"/>
         <v>43100</v>
       </c>
-      <c r="H6" s="280">
+      <c r="H6" s="279">
         <f t="shared" si="0"/>
         <v>42735</v>
       </c>
-      <c r="I6" s="280">
+      <c r="I6" s="279">
         <f t="shared" si="0"/>
         <v>42369</v>
       </c>
-      <c r="J6" s="280">
+      <c r="J6" s="279">
         <f t="shared" si="0"/>
         <v>42004</v>
       </c>
-      <c r="K6" s="280">
+      <c r="K6" s="279">
         <f t="shared" si="0"/>
         <v>41639</v>
       </c>
-      <c r="L6" s="280">
+      <c r="L6" s="279">
         <f t="shared" si="0"/>
         <v>41274</v>
       </c>
-      <c r="M6" s="280">
+      <c r="M6" s="279">
         <f t="shared" si="0"/>
         <v>40908</v>
       </c>
@@ -7169,7 +7169,7 @@
       <c r="B24" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="273">
+      <c r="C24" s="272">
         <v>77275</v>
       </c>
       <c r="D24" s="140">
@@ -7530,7 +7530,7 @@
         <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
         <v/>
       </c>
-      <c r="M34" s="345" t="str">
+      <c r="M34" s="344" t="str">
         <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
         <v/>
       </c>
@@ -8056,7 +8056,7 @@
       <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="344" t="s">
+      <c r="C49" s="343" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="6"/>
@@ -8072,9 +8072,9 @@
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="339"/>
+      <c r="C50" s="338"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="339"/>
+      <c r="E50" s="338"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -8086,7 +8086,7 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="340" t="s">
+      <c r="B51" s="339" t="s">
         <v>297</v>
       </c>
       <c r="C51" s="165"/>
@@ -8103,50 +8103,50 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="341" t="s">
+      <c r="B52" s="340" t="s">
         <v>298</v>
       </c>
-      <c r="C52" s="342" t="str">
+      <c r="C52" s="341" t="str">
         <f>IF(C51="","",C51/C7)</f>
         <v/>
       </c>
-      <c r="D52" s="342" t="str">
+      <c r="D52" s="341" t="str">
         <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
         <v/>
       </c>
-      <c r="E52" s="342" t="str">
+      <c r="E52" s="341" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="F52" s="342" t="str">
+      <c r="F52" s="341" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="G52" s="342" t="str">
+      <c r="G52" s="341" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H52" s="342" t="str">
+      <c r="H52" s="341" t="str">
         <f>IF(H51="","",H51/H7)</f>
         <v/>
       </c>
-      <c r="I52" s="342" t="str">
+      <c r="I52" s="341" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J52" s="342" t="str">
+      <c r="J52" s="341" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K52" s="342" t="str">
+      <c r="K52" s="341" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L52" s="342" t="str">
+      <c r="L52" s="341" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M52" s="343" t="str">
+      <c r="M52" s="342" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -9517,7 +9517,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9546,7 +9546,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="K2" s="349" t="s">
+      <c r="K2" s="348" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9555,7 +9555,7 @@
         <v>259</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="274">
+      <c r="D3" s="273">
         <v>10746578</v>
       </c>
       <c r="E3" s="156" t="str">
@@ -9564,10 +9564,10 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="275" t="s">
+      <c r="H3" s="274" t="s">
         <v>260</v>
       </c>
-      <c r="I3" s="276">
+      <c r="I3" s="275">
         <v>10646128</v>
       </c>
       <c r="K3" s="74"/>
@@ -9577,7 +9577,7 @@
         <v>226</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="277">
+      <c r="D4" s="276">
         <f>D3-I3</f>
         <v>100450</v>
       </c>
@@ -9665,12 +9665,11 @@
         <v>255</v>
       </c>
       <c r="C9" s="255"/>
-      <c r="D9" s="272">
+      <c r="D9" s="271">
         <v>44742</v>
       </c>
-      <c r="E9" s="269" t="str">
-        <f>IF(D9=Data!C3,"FY","Quarter")</f>
-        <v>Quarter</v>
+      <c r="E9" s="290" t="s">
+        <v>343</v>
       </c>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
@@ -10524,11 +10523,11 @@
         <v>266</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="444">
+      <c r="D52" s="443">
         <f>D53+D54+D55</f>
         <v>2627003</v>
       </c>
-      <c r="E52" s="445"/>
+      <c r="E52" s="444"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10537,11 +10536,11 @@
         <v>236</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="447">
+      <c r="D53" s="446">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>2627003</v>
       </c>
-      <c r="E53" s="425"/>
+      <c r="E53" s="390"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10557,10 +10556,10 @@
         <v>136</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="452">
+      <c r="D54" s="451">
         <v>0</v>
       </c>
-      <c r="E54" s="409"/>
+      <c r="E54" s="370"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10571,10 +10570,10 @@
         <v>135</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="452">
+      <c r="D55" s="451">
         <v>0</v>
       </c>
-      <c r="E55" s="409"/>
+      <c r="E55" s="370"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10589,8 +10588,8 @@
         <v>139</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="446"/>
-      <c r="E57" s="446"/>
+      <c r="D57" s="445"/>
+      <c r="E57" s="445"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10636,11 +10635,11 @@
         <v>140</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="450">
+      <c r="D60" s="449">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>5592553.4349403586</v>
       </c>
-      <c r="E60" s="451"/>
+      <c r="E60" s="450"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10649,7 +10648,7 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="292" t="s">
+      <c r="B62" s="291" t="s">
         <v>265</v>
       </c>
     </row>
@@ -10657,33 +10656,33 @@
       <c r="B63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="442">
+      <c r="D63" s="385">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.86417172441551726</v>
       </c>
-      <c r="E63" s="443"/>
+      <c r="E63" s="386"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="448">
+      <c r="D64" s="447">
         <v>0.14829999999999999</v>
       </c>
-      <c r="E64" s="449"/>
+      <c r="E64" s="448"/>
       <c r="F64" s="266" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="292" t="s">
+      <c r="B65" s="291" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="448">
+      <c r="D65" s="447">
         <f>D64</f>
         <v>0.14829999999999999</v>
       </c>
-      <c r="E65" s="449"/>
+      <c r="E65" s="448"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10697,10 +10696,13 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" sqref="D49" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F35 F19:F20 F16" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{AFD5FBA9-C4EF-4BE6-BE72-8D226578DBB6}">
+      <formula1>"FY, Quarter"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -10719,7 +10721,7 @@
   <dimension ref="A1:M902"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10752,22 +10754,22 @@
       <c r="B2" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="285" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286">
+      <c r="D2" s="285"/>
+      <c r="E2" s="285">
         <v>1</v>
       </c>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286">
+      <c r="F2" s="285"/>
+      <c r="G2" s="285">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="286">
+      <c r="I2" s="285">
         <v>3</v>
       </c>
-      <c r="J2" s="286"/>
+      <c r="J2" s="285"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
@@ -10776,93 +10778,93 @@
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="278">
-        <f>Data!C3</f>
+      <c r="C3" s="277">
+        <f>Dashboard!E6</f>
         <v>44561</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="278">
+      <c r="E3" s="277">
         <f>EOMONTH(EDATE(C3,12),0)</f>
         <v>44926</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="G3" s="278" t="str">
+      <c r="G3" s="277" t="str">
         <f>IF(G8="","",EOMONTH(EDATE(E3,12),0))</f>
         <v/>
       </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="278" t="str">
+      <c r="I3" s="277" t="str">
         <f>IF(I15="","",EOMONTH(EDATE(G3,12),0))</f>
         <v/>
       </c>
-      <c r="J3" s="297"/>
+      <c r="J3" s="296"/>
       <c r="L3" s="72" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="293" t="s">
+      <c r="B4" s="292" t="s">
         <v>309</v>
       </c>
-      <c r="C4" s="294">
+      <c r="C4" s="293">
         <v>613322</v>
       </c>
       <c r="D4" s="260">
         <f>C4/C7</f>
         <v>0.51322685352932262</v>
       </c>
-      <c r="E4" s="294"/>
+      <c r="E4" s="293"/>
       <c r="F4" s="260"/>
       <c r="G4" s="222"/>
       <c r="H4" s="260"/>
       <c r="I4" s="222"/>
-      <c r="J4" s="287"/>
+      <c r="J4" s="286"/>
       <c r="K4" s="6"/>
       <c r="L4" s="74"/>
       <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="293" t="s">
+      <c r="B5" s="292" t="s">
         <v>310</v>
       </c>
-      <c r="C5" s="294">
+      <c r="C5" s="293">
         <v>558465</v>
       </c>
       <c r="D5" s="260">
         <f>C5/C7</f>
         <v>0.46732260502028816</v>
       </c>
-      <c r="E5" s="294"/>
+      <c r="E5" s="293"/>
       <c r="F5" s="260"/>
       <c r="G5" s="222"/>
       <c r="H5" s="260"/>
       <c r="I5" s="222"/>
-      <c r="J5" s="287"/>
+      <c r="J5" s="286"/>
       <c r="K5" s="6"/>
       <c r="L5" s="74"/>
       <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="293" t="s">
+      <c r="B6" s="292" t="s">
         <v>311</v>
       </c>
-      <c r="C6" s="294">
+      <c r="C6" s="293">
         <v>23244</v>
       </c>
       <c r="D6" s="260">
         <f>C6/C7</f>
         <v>1.9450541450389155E-2</v>
       </c>
-      <c r="E6" s="294"/>
+      <c r="E6" s="293"/>
       <c r="F6" s="260"/>
       <c r="G6" s="222"/>
       <c r="H6" s="260"/>
       <c r="I6" s="222"/>
-      <c r="J6" s="287"/>
+      <c r="J6" s="286"/>
       <c r="K6" s="6"/>
       <c r="L6" s="74"/>
       <c r="M6" s="57"/>
@@ -10876,15 +10878,15 @@
         <v>1195031</v>
       </c>
       <c r="D7" s="259"/>
-      <c r="E7" s="338">
+      <c r="E7" s="337">
         <f>C7*1.445</f>
         <v>1726819.7950000002</v>
       </c>
       <c r="F7" s="259"/>
-      <c r="G7" s="338"/>
+      <c r="G7" s="337"/>
       <c r="H7" s="259"/>
       <c r="I7" s="228"/>
-      <c r="J7" s="288"/>
+      <c r="J7" s="287"/>
       <c r="K7" s="6"/>
       <c r="L7" s="74" t="s">
         <v>270</v>
@@ -10905,7 +10907,7 @@
       <c r="G8" s="73"/>
       <c r="H8" s="261"/>
       <c r="I8" s="73"/>
-      <c r="J8" s="328"/>
+      <c r="J8" s="327"/>
       <c r="K8" s="6"/>
       <c r="L8" s="74"/>
       <c r="M8" s="57"/>
@@ -10924,16 +10926,16 @@
         <v>936111.46000000008</v>
       </c>
       <c r="F9" s="262"/>
-      <c r="G9" s="282" t="str">
+      <c r="G9" s="281" t="str">
         <f>IF(G7="","",G7*(1-G10))</f>
         <v/>
       </c>
       <c r="H9" s="262"/>
-      <c r="I9" s="282" t="str">
+      <c r="I9" s="281" t="str">
         <f>IF(I7="","",I7*(1-I10))</f>
         <v/>
       </c>
-      <c r="J9" s="329"/>
+      <c r="J9" s="328"/>
       <c r="K9" s="6"/>
       <c r="L9" s="116"/>
       <c r="M9" s="1"/>
@@ -10955,7 +10957,7 @@
       <c r="G10" s="73"/>
       <c r="H10" s="186"/>
       <c r="I10" s="73"/>
-      <c r="J10" s="330"/>
+      <c r="J10" s="329"/>
       <c r="K10" s="6"/>
       <c r="L10" s="74"/>
     </row>
@@ -11002,7 +11004,7 @@
       <c r="G12" s="65"/>
       <c r="H12" s="189"/>
       <c r="I12" s="65"/>
-      <c r="J12" s="331"/>
+      <c r="J12" s="330"/>
       <c r="K12" s="6"/>
       <c r="L12" s="74"/>
     </row>
@@ -11023,7 +11025,7 @@
       <c r="G13" s="76"/>
       <c r="H13" s="263"/>
       <c r="I13" s="76"/>
-      <c r="J13" s="332"/>
+      <c r="J13" s="331"/>
       <c r="K13" s="6"/>
       <c r="L13" s="74"/>
     </row>
@@ -11075,7 +11077,7 @@
         <f>IF(I8="","",IF(ABS(G16+I16)=ABS(G16)+ABS(I16),IF(I16&lt;0,-1,1)*(I16-G16)/G16,"Turn"))</f>
         <v/>
       </c>
-      <c r="J15" s="333"/>
+      <c r="J15" s="332"/>
       <c r="K15" s="6"/>
       <c r="L15" s="77"/>
       <c r="M15" s="78"/>
@@ -11084,103 +11086,103 @@
       <c r="B16" s="134" t="s">
         <v>247</v>
       </c>
-      <c r="C16" s="320">
+      <c r="C16" s="319">
         <f>C11-C13</f>
         <v>204049</v>
       </c>
-      <c r="D16" s="321"/>
-      <c r="E16" s="320">
+      <c r="D16" s="320"/>
+      <c r="E16" s="319">
         <f>E11-E13</f>
         <v>359003.38625000004</v>
       </c>
-      <c r="F16" s="321"/>
-      <c r="G16" s="320" t="str">
+      <c r="F16" s="320"/>
+      <c r="G16" s="319" t="str">
         <f>IF(G8="","",G11-G13)</f>
         <v/>
       </c>
-      <c r="H16" s="321"/>
-      <c r="I16" s="320" t="str">
+      <c r="H16" s="320"/>
+      <c r="I16" s="319" t="str">
         <f>IF(I8="","",I11-I13)</f>
         <v/>
       </c>
-      <c r="J16" s="334"/>
+      <c r="J16" s="333"/>
       <c r="K16" s="6"/>
       <c r="L16" s="79"/>
       <c r="M16" s="56"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="316" t="s">
+      <c r="B17" s="315" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="317">
+      <c r="C17" s="316">
         <v>0.25</v>
       </c>
-      <c r="D17" s="318"/>
-      <c r="E17" s="319">
+      <c r="D17" s="317"/>
+      <c r="E17" s="318">
         <f>IF(E16="","",C17)</f>
         <v>0.25</v>
       </c>
-      <c r="F17" s="319"/>
-      <c r="G17" s="319" t="str">
+      <c r="F17" s="318"/>
+      <c r="G17" s="318" t="str">
         <f>IF(G16="","",E17)</f>
         <v/>
       </c>
-      <c r="H17" s="319"/>
-      <c r="I17" s="319" t="str">
+      <c r="H17" s="318"/>
+      <c r="I17" s="318" t="str">
         <f>IF(I16="","",G17)</f>
         <v/>
       </c>
-      <c r="J17" s="335"/>
+      <c r="J17" s="334"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="325" t="s">
+      <c r="B18" s="324" t="s">
         <v>305</v>
       </c>
       <c r="C18" s="264">
         <f>C19/C9</f>
         <v>0.23623052723871152</v>
       </c>
-      <c r="D18" s="327"/>
-      <c r="E18" s="326">
+      <c r="D18" s="326"/>
+      <c r="E18" s="325">
         <f>E19/E9</f>
         <v>0.28762871857962302</v>
       </c>
-      <c r="F18" s="326"/>
-      <c r="G18" s="326" t="str">
+      <c r="F18" s="325"/>
+      <c r="G18" s="325" t="str">
         <f>IF(G9="","",G19/G9)</f>
         <v/>
       </c>
-      <c r="H18" s="326"/>
-      <c r="I18" s="326" t="str">
+      <c r="H18" s="325"/>
+      <c r="I18" s="325" t="str">
         <f>IF(I9="","",I19/I9)</f>
         <v/>
       </c>
-      <c r="J18" s="336"/>
+      <c r="J18" s="335"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="322" t="s">
+      <c r="B19" s="321" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="323">
+      <c r="C19" s="322">
         <f>IF(C16&lt;=0,C16,C16*(1-C17))</f>
         <v>153036.75</v>
       </c>
-      <c r="D19" s="323"/>
-      <c r="E19" s="324">
+      <c r="D19" s="322"/>
+      <c r="E19" s="323">
         <f>IF(E16="","",IF(E16&lt;=0,E16,E16*(1-E17)))</f>
         <v>269252.53968750004</v>
       </c>
-      <c r="F19" s="323"/>
-      <c r="G19" s="324" t="str">
+      <c r="F19" s="322"/>
+      <c r="G19" s="323" t="str">
         <f>IF(G16="","",IF(G16&lt;=0,G16,G16*(1-G17)))</f>
         <v/>
       </c>
-      <c r="H19" s="323"/>
-      <c r="I19" s="324" t="str">
+      <c r="H19" s="322"/>
+      <c r="I19" s="323" t="str">
         <f>IF(I16="","",IF(I16&lt;=0,I16,I16*(1-I17)))</f>
         <v/>
       </c>
-      <c r="J19" s="337"/>
+      <c r="J19" s="336"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12134,19 +12136,19 @@
       <c r="B2" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="285" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="286">
+      <c r="D2" s="285">
         <v>1</v>
       </c>
-      <c r="E2" s="286">
+      <c r="E2" s="285">
         <v>2</v>
       </c>
-      <c r="F2" s="286">
+      <c r="F2" s="285">
         <v>3</v>
       </c>
-      <c r="G2" s="286" t="str">
+      <c r="G2" s="285" t="str">
         <f>B24</f>
         <v>Exit after Year 1</v>
       </c>
@@ -12158,19 +12160,19 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="278">
+      <c r="C3" s="277">
         <f>Operation!C3</f>
         <v>44561</v>
       </c>
-      <c r="D3" s="278">
+      <c r="D3" s="277">
         <f>Operation!E3</f>
         <v>44926</v>
       </c>
-      <c r="E3" s="278" t="str">
+      <c r="E3" s="277" t="str">
         <f>Operation!G3</f>
         <v/>
       </c>
-      <c r="F3" s="278" t="str">
+      <c r="F3" s="277" t="str">
         <f>Operation!I3</f>
         <v/>
       </c>
@@ -12201,12 +12203,12 @@
         <f>Operation!I19</f>
         <v/>
       </c>
-      <c r="G4" s="304">
+      <c r="G4" s="303">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>1</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="350"/>
+      <c r="I4" s="349"/>
       <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12228,7 +12230,7 @@
       </c>
       <c r="G5" s="198"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="350"/>
+      <c r="I5" s="349"/>
       <c r="J5" s="56"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12242,28 +12244,28 @@
         <v>0.35</v>
       </c>
       <c r="E6" s="65"/>
-      <c r="F6" s="309"/>
+      <c r="F6" s="308"/>
       <c r="G6" s="199"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="351"/>
+      <c r="I6" s="350"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="310">
+      <c r="C7" s="309">
         <f>C4*C6</f>
         <v>53562.862499999996</v>
       </c>
-      <c r="D7" s="310">
+      <c r="D7" s="309">
         <f>D4*D6</f>
         <v>94238.388890625007</v>
       </c>
-      <c r="E7" s="311"/>
-      <c r="F7" s="311"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
       <c r="G7" s="200"/>
       <c r="H7" s="82"/>
-      <c r="I7" s="350"/>
+      <c r="I7" s="349"/>
       <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -12291,7 +12293,7 @@
         <v>175014.15079687504</v>
       </c>
       <c r="H8" s="82"/>
-      <c r="I8" s="350"/>
+      <c r="I8" s="349"/>
       <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12302,43 +12304,43 @@
         <f>C8/(Common_Shares/Data!$C$4)</f>
         <v>1.3212558983860647E-2</v>
       </c>
-      <c r="D9" s="306">
+      <c r="D9" s="305">
         <f>D8/(Common_Shares/Data!$C$4)</f>
         <v>2.3246148798738694E-2</v>
       </c>
-      <c r="E9" s="306" t="str">
+      <c r="E9" s="305" t="str">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="F9" s="306" t="str">
+      <c r="F9" s="305" t="str">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="G9" s="307">
+      <c r="G9" s="306">
         <f>G8*Data!C$4/Dashboard!I5</f>
         <v>2.3246148798738694E-2</v>
       </c>
       <c r="H9" s="82"/>
-      <c r="I9" s="350"/>
+      <c r="I9" s="349"/>
       <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="234" t="s">
         <v>248</v>
       </c>
-      <c r="C10" s="312">
+      <c r="C10" s="311">
         <f>C11/C9</f>
         <v>7.2658142996572845</v>
       </c>
-      <c r="D10" s="312">
+      <c r="D10" s="311">
         <f>D11/D9</f>
         <v>5.312707970220897</v>
       </c>
-      <c r="E10" s="346"/>
-      <c r="F10" s="346"/>
+      <c r="E10" s="345"/>
+      <c r="F10" s="345"/>
       <c r="G10" s="235"/>
       <c r="H10" s="82"/>
-      <c r="I10" s="350" t="s">
+      <c r="I10" s="349" t="s">
         <v>316</v>
       </c>
       <c r="J10" s="56"/>
@@ -12347,19 +12349,19 @@
       <c r="B11" s="234" t="s">
         <v>262</v>
       </c>
-      <c r="C11" s="284">
+      <c r="C11" s="283">
         <f>0.0411+0.0549</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D11" s="285">
+      <c r="D11" s="284">
         <f>0.0137*2+0.0412+0.0549</f>
         <v>0.1235</v>
       </c>
-      <c r="E11" s="347"/>
-      <c r="F11" s="347"/>
-      <c r="G11" s="283"/>
+      <c r="E11" s="346"/>
+      <c r="F11" s="346"/>
+      <c r="G11" s="282"/>
       <c r="H11" s="82"/>
-      <c r="I11" s="350"/>
+      <c r="I11" s="349"/>
       <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12373,14 +12375,14 @@
         <f>D11</f>
         <v>0.1235</v>
       </c>
-      <c r="E12" s="348"/>
-      <c r="F12" s="348"/>
+      <c r="E12" s="347"/>
+      <c r="F12" s="347"/>
       <c r="G12" s="230">
         <f>G9*D26</f>
         <v>0.58115371996846732</v>
       </c>
       <c r="H12" s="82"/>
-      <c r="I12" s="350"/>
+      <c r="I12" s="349"/>
       <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12405,7 +12407,7 @@
         <v>0.08</v>
       </c>
       <c r="H13" s="62"/>
-      <c r="I13" s="351"/>
+      <c r="I13" s="350"/>
       <c r="J13" s="57"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12430,7 +12432,7 @@
         <v>1.1664000000000001</v>
       </c>
       <c r="H14" s="62"/>
-      <c r="I14" s="351"/>
+      <c r="I14" s="350"/>
       <c r="J14" s="57"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -12458,7 +12460,7 @@
         <v>0.49824564469175864</v>
       </c>
       <c r="H15" s="80"/>
-      <c r="I15" s="350"/>
+      <c r="I15" s="349"/>
       <c r="J15" s="56"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12529,7 +12531,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-0.34893008567981088</v>
       </c>
-      <c r="E20" s="455" t="str">
+      <c r="E20" s="454" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12552,7 +12554,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-1.7775446362273226E-2</v>
       </c>
-      <c r="E21" s="455"/>
+      <c r="E21" s="454"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>0.56166881016905268</v>
@@ -12574,11 +12576,11 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E23" s="458" t="s">
+      <c r="E23" s="457" t="s">
         <v>231</v>
       </c>
-      <c r="F23" s="458"/>
-      <c r="G23" s="458"/>
+      <c r="F23" s="457"/>
+      <c r="G23" s="457"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12591,7 +12593,7 @@
       <c r="D24" s="202" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="305" t="s">
+      <c r="E24" s="304" t="s">
         <v>228</v>
       </c>
       <c r="F24" s="265" t="s">
@@ -12612,14 +12614,14 @@
         <f>1/D25</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D25" s="298">
+      <c r="D25" s="297">
         <v>15</v>
       </c>
       <c r="E25" s="206">
         <f ca="1">G9*D25/G14</f>
         <v>0.29894738681505517</v>
       </c>
-      <c r="F25" s="456">
+      <c r="F25" s="455">
         <f ca="1">SUM(C15:F15)</f>
         <v>0.11435185185185184</v>
       </c>
@@ -12632,21 +12634,21 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="302" t="s">
+      <c r="B26" s="301" t="s">
         <v>300</v>
       </c>
-      <c r="C26" s="303">
+      <c r="C26" s="302">
         <f t="shared" ref="C26" si="0">1/D26</f>
         <v>0.04</v>
       </c>
-      <c r="D26" s="315">
+      <c r="D26" s="314">
         <v>25</v>
       </c>
       <c r="E26" s="207">
         <f ca="1">G9*D26/G14</f>
         <v>0.49824564469175864</v>
       </c>
-      <c r="F26" s="457"/>
+      <c r="F26" s="456"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>1.4843141533884854</v>
@@ -12657,8 +12659,8 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
-      <c r="C27" s="356"/>
-      <c r="D27" s="357"/>
+      <c r="C27" s="355"/>
+      <c r="D27" s="356"/>
       <c r="E27" s="123"/>
       <c r="F27" s="124"/>
       <c r="G27" s="123"/>
@@ -12719,10 +12721,10 @@
       <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="453" t="s">
+      <c r="C32" s="452" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="454"/>
+      <c r="D32" s="453"/>
       <c r="E32" s="30" t="s">
         <v>219</v>
       </c>
@@ -12776,7 +12778,7 @@
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>1.1240985122672182</v>
       </c>
-      <c r="G34" s="281">
+      <c r="G34" s="280">
         <f>Dashboard!D10+4.5%</f>
         <v>7.3999999999999996E-2</v>
       </c>
@@ -13831,7 +13833,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="12"/>
-      <c r="G10" s="295"/>
+      <c r="G10" s="294"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="99" t="s">
@@ -13839,7 +13841,7 @@
       </c>
       <c r="C11" s="93"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="295"/>
+      <c r="G11" s="294"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
@@ -13853,7 +13855,7 @@
         <v>155</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="295"/>
+      <c r="G12" s="294"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="53" t="s">
@@ -13867,7 +13869,7 @@
         <v>156</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="295" t="s">
+      <c r="G13" s="294" t="s">
         <v>313</v>
       </c>
     </row>
@@ -13883,7 +13885,7 @@
         <v>156</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="295"/>
+      <c r="G14" s="294"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
@@ -13897,7 +13899,7 @@
         <v>155</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="295"/>
+      <c r="G15" s="294"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
@@ -13911,7 +13913,7 @@
         <v>165</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="295"/>
+      <c r="G16" s="294"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="99" t="s">
@@ -13919,7 +13921,7 @@
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="23"/>
-      <c r="G17" s="295"/>
+      <c r="G17" s="294"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="53" t="s">
@@ -13934,7 +13936,7 @@
         <v>Strongly agree</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="295"/>
+      <c r="G18" s="294"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="53" t="s">
@@ -13948,7 +13950,7 @@
         <v>156</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="295"/>
+      <c r="G19" s="294"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="53" t="s">
@@ -13962,7 +13964,7 @@
         <v>165</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="295"/>
+      <c r="G20" s="294"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="53" t="s">
@@ -13976,7 +13978,7 @@
         <v>156</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="295"/>
+      <c r="G21" s="294"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="53" t="s">
@@ -13990,7 +13992,7 @@
         <v>155</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="295"/>
+      <c r="G22" s="294"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="99" t="s">
@@ -13998,7 +14000,7 @@
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="23"/>
-      <c r="G23" s="295"/>
+      <c r="G23" s="294"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
@@ -14012,7 +14014,7 @@
         <v>163</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="295"/>
+      <c r="G24" s="294"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
@@ -14026,7 +14028,7 @@
         <v>156</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="295"/>
+      <c r="G25" s="294"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53" t="s">
@@ -14040,7 +14042,7 @@
         <v>155</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="295"/>
+      <c r="G26" s="294"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="53" t="s">
@@ -14054,7 +14056,7 @@
         <v>156</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="295"/>
+      <c r="G27" s="294"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="53" t="s">
@@ -14068,7 +14070,7 @@
         <v>156</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="295"/>
+      <c r="G28" s="294"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="99" t="s">
@@ -14076,7 +14078,7 @@
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="23"/>
-      <c r="G29" s="295"/>
+      <c r="G29" s="294"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
@@ -14091,7 +14093,7 @@
         <v>Very Low</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="295"/>
+      <c r="G30" s="294"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="53" t="s">
@@ -14105,7 +14107,7 @@
         <v>178</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="295"/>
+      <c r="G31" s="294"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="s">
@@ -14119,7 +14121,7 @@
         <v>163</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="295"/>
+      <c r="G32" s="294"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="s">
@@ -14133,7 +14135,7 @@
         <v>163</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="295"/>
+      <c r="G33" s="294"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
@@ -14147,7 +14149,7 @@
         <v>163</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="295"/>
+      <c r="G34" s="294"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
@@ -14160,7 +14162,7 @@
       <c r="E35" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="G35" s="295" t="s">
+      <c r="G35" s="294" t="s">
         <v>313</v>
       </c>
     </row>
@@ -14177,7 +14179,7 @@
         <v>Very Low</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="295"/>
+      <c r="G36" s="294"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
@@ -14191,7 +14193,7 @@
         <v>178</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="295"/>
+      <c r="G37" s="294"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="53" t="s">
@@ -14205,7 +14207,7 @@
         <v>178</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="295"/>
+      <c r="G38" s="294"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
@@ -14219,7 +14221,7 @@
         <v>178</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="295"/>
+      <c r="G39" s="294"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
@@ -14233,7 +14235,7 @@
         <v>165</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="295"/>
+      <c r="G40" s="294"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
@@ -14246,7 +14248,7 @@
       <c r="E41" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="G41" s="295"/>
+      <c r="G41" s="294"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
@@ -14261,7 +14263,7 @@
         <v>Very Low</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="295"/>
+      <c r="G42" s="294"/>
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="53" t="s">
@@ -14275,7 +14277,7 @@
         <v>178</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="295"/>
+      <c r="G43" s="294"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="53" t="s">
@@ -14289,7 +14291,7 @@
         <v>163</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="295"/>
+      <c r="G44" s="294"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="53" t="s">
@@ -14303,7 +14305,7 @@
         <v>163</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="295"/>
+      <c r="G45" s="294"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="53" t="s">
@@ -14317,7 +14319,7 @@
         <v>178</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="295"/>
+      <c r="G46" s="294"/>
     </row>
     <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="53" t="s">
@@ -14331,7 +14333,7 @@
         <v>178</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="295"/>
+      <c r="G47" s="294"/>
     </row>
     <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="53" t="s">
@@ -14345,7 +14347,7 @@
         <v>163</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="295"/>
+      <c r="G48" s="294"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
@@ -14360,7 +14362,7 @@
         <v>Medium</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="295"/>
+      <c r="G49" s="294"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="53" t="s">
@@ -14373,7 +14375,7 @@
       <c r="E50" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="G50" s="295"/>
+      <c r="G50" s="294"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="53" t="s">
@@ -14387,7 +14389,7 @@
         <v>178</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="295"/>
+      <c r="G51" s="294"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="53" t="s">
@@ -14400,7 +14402,7 @@
       <c r="E52" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="295"/>
+      <c r="G52" s="294"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="53" t="s">
@@ -14414,7 +14416,7 @@
         <v>165</v>
       </c>
       <c r="F53" s="53"/>
-      <c r="G53" s="295"/>
+      <c r="G53" s="294"/>
       <c r="H53" s="53"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14429,7 +14431,7 @@
         <v>315</v>
       </c>
       <c r="F54" s="53"/>
-      <c r="G54" s="295"/>
+      <c r="G54" s="294"/>
       <c r="H54" s="53"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14445,7 +14447,7 @@
         <v>Medium</v>
       </c>
       <c r="F55" s="53"/>
-      <c r="G55" s="295"/>
+      <c r="G55" s="294"/>
       <c r="H55" s="53"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14460,7 +14462,7 @@
         <v>156</v>
       </c>
       <c r="F56" s="53"/>
-      <c r="G56" s="295"/>
+      <c r="G56" s="294"/>
       <c r="H56" s="53"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14475,7 +14477,7 @@
         <v>178</v>
       </c>
       <c r="F57" s="53"/>
-      <c r="G57" s="295"/>
+      <c r="G57" s="294"/>
       <c r="H57" s="53"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14490,7 +14492,7 @@
         <v>155</v>
       </c>
       <c r="F58" s="53"/>
-      <c r="G58" s="295"/>
+      <c r="G58" s="294"/>
       <c r="H58" s="53"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14505,7 +14507,7 @@
         <v>156</v>
       </c>
       <c r="F59" s="53"/>
-      <c r="G59" s="295"/>
+      <c r="G59" s="294"/>
       <c r="H59" s="53"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14520,7 +14522,7 @@
         <v>156</v>
       </c>
       <c r="F60" s="53"/>
-      <c r="G60" s="295"/>
+      <c r="G60" s="294"/>
       <c r="H60" s="53"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14535,7 +14537,7 @@
         <v>163</v>
       </c>
       <c r="F61" s="53"/>
-      <c r="G61" s="295"/>
+      <c r="G61" s="294"/>
       <c r="H61" s="53"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14551,12 +14553,12 @@
         <v>Low</v>
       </c>
       <c r="F62" s="53"/>
-      <c r="G62" s="295"/>
+      <c r="G62" s="294"/>
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" s="6"/>
-      <c r="G63" s="295"/>
+      <c r="G63" s="294"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="97" t="s">
@@ -14570,10 +14572,10 @@
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
         <v>0.70296768707482993</v>
       </c>
-      <c r="G64" s="295"/>
+      <c r="G64" s="294"/>
     </row>
     <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G65" s="296"/>
+      <c r="G65" s="295"/>
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="54" t="s">
